--- a/Evaluation/asserted-verilog-evaluation-dataset-new-2.xlsx
+++ b/Evaluation/asserted-verilog-evaluation-dataset-new-2.xlsx
@@ -8,2580 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Postdoc\Code\RAG-aided-Assertion-Generation\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CA87F8-2DBD-4A0F-959E-60D1F87C8037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC83D68-6E84-4AE8-BA76-15D854AA0F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>HumanExplanation</t>
-  </si>
-  <si>
-    <t>pure code</t>
-  </si>
-  <si>
-    <t>This file is a testbench. 
-Assertion 1:
-This assertion checks that at every rising edge of the clock (posedge clk), the value of the output (out) from the delay module matches the expected value (reference_queue[0]).</t>
-  </si>
-  <si>
-    <t>module delay_tb2;
-   localparam NUM_TESTS = 1000;
-   localparam CYCLES = 30;  
-   localparam WIDTH = 8;  
-   localparam logic HAS_ASYNC_RESET = 1'b1;   
-   localparam logic RESET_ACTIVATION_LEVEL = 1'b1;   
-   localparam logic [WIDTH-1:0] RESET_VALUE = '0; 
-   logic             clk = 1'b0;
-   logic             rst;
-   logic             en;
-   logic [WIDTH-1:0] in; 
-   logic [WIDTH-1:0] out;
-   delay #(.CYCLES(CYCLES), .WIDTH(WIDTH), .HAS_ASYNC_RESET(HAS_ASYNC_RESET),
-           .RESET_ACTIVATION_LEVEL(RESET_ACTIVATION_LEVEL), 
-           .RESET_VALUE(RESET_VALUE))
-   DUT (.*);
-   initial begin : generate_clock
-      while (1)
-        #5 clk = ~clk;      
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      en &lt;= 1'b0;      
-      in &lt;= '0;      
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin
-         in &lt;= $random;
-         en &lt;= $random;         
-         @(posedge clk);
-      end  
-      disable generate_clock;
-      $display("Tests completed.");      
-   end
-   logic [WIDTH-1:0] reference_queue[$];
-   always_ff @(posedge clk or posedge rst)
-     if (rst) begin
-        reference_queue = {};
-        for (int i=0; i &lt; CYCLES; i++) reference_queue = {reference_queue, RESET_VALUE};
-     end
-     else if (en) begin
-        reference_queue = {reference_queue[1:$], in};
-     end
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion ensures that the output (out) of the delay module matches the input (in) delayed by the specified number of cycles (CYCLES) on the posedge of clk. But this assertion is disabled when the reset signal (rst) is active or the delay cycle count (count) is less than CYCLES.
-Assertion 2:
-This assertion ensures that the output (out) of the delay module matches the parameter RESET_VALUE on the posedge of clk. But this assertion is disabled when count equals CYCLES.
-</t>
-  </si>
-  <si>
-    <t>module delay_tb3;
-   localparam NUM_TESTS = 1000;
-   localparam CYCLES = 30;  
-   localparam WIDTH = 8;  
-   localparam logic HAS_ASYNC_RESET = 1'b1;   
-   localparam logic RESET_ACTIVATION_LEVEL = 1'b1;   
-   localparam logic [WIDTH-1:0] RESET_VALUE = '0; 
-   logic             clk = 1'b0;
-   logic             rst;
-   logic             en;
-   logic [WIDTH-1:0] in; 
-   logic [WIDTH-1:0] out;
-   delay #(.CYCLES(CYCLES), .WIDTH(WIDTH), .HAS_ASYNC_RESET(HAS_ASYNC_RESET),
-           .RESET_ACTIVATION_LEVEL(RESET_ACTIVATION_LEVEL), 
-           .RESET_VALUE(RESET_VALUE))
-   DUT (.en(1'b1), .*);
-   initial begin : generate_clock
-      while (1)
-        #5 clk = ~clk;      
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      in &lt;= '0;      
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin
-         in &lt;= $random;
-         @(posedge clk);
-      end  
-      disable generate_clock;
-      $display("Tests completed.");      
-   end
-   int count;    
-   always_ff @(posedge clk or posedge rst)
-     if (rst) count = 0;
-     else if (count &lt; CYCLES) count ++;
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-Checks that whenever the signal in is true on a clock cycle (at the rising edge of clk), the signal out must be true in the following clock cycle and this assertion is only evaluated on the rising edge of clk and is disabled (not checked) when the rst signal is asserted (i.e., rst is high). 
-Assertion 2:
-Check to make sure the reset is working correctly. Technically, this is checking for an synchronous reset because it checks to see if out is not asserted on every rising edge after rst is 1. 
-Assertion 3:
-Check for the asynchronous reset, i.e., when rst is 1, out signal should be 0.</t>
-  </si>
-  <si>
-    <t>module ff_tb1;
-   localparam NUM_TESTS = 10000;   
-   logic clk=1'b0, rst, en, in, out;
-   ff DUT (.en(1'b1), .*);
-   initial begin : generate_clock
-      while(1)
-        #5 clk = ~clk;      
-   end
-   initial begin : drive_inputs
-      $timeformat(-9, 0, " ns");         
-      rst &lt;= 1'b1;
-      in &lt;= 1'b0;      
-      en &lt;= 1'b0;
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin    
-         in &lt;= $random;
-         en &lt;= $random;
-         @(posedge clk);
-      end
-      disable generate_clock;
-      $display("Tests completed.");
-   end 
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1: 
-Check to see if the output is not asserted one cycle after the input is not asserted. In other words, what we ideally want is to check if the output is equal to the input from one cycle in the past. 
-Assertion 2-3:
-Both to check to make sure that the output doesn't change when the enable isn't asserted. We can either do this by using the $past function to check the output on the previous cycle, or by using the $stable function, which is semantically equivalent. 
-Assertion 4:
-Check for the asynchronous reset, i.e., when rst is 1, out signal should be 0.</t>
-  </si>
-  <si>
-    <t>module ff_tb2;
-   localparam NUM_TESTS = 10000;   
-   logic clk=1'b0, rst, en, in, out;
-   ff DUT (.*);
-   initial begin : generate_clock
-      while(1)
-        #5 clk = ~clk;      
-   end
-   initial begin : drive_inputs
-      $timeformat(-9, 0, " ns");         
-      rst &lt;= 1'b1;
-      in &lt;= 1'b0;      
-      en &lt;= 1'b0;
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin    
-         in &lt;= $random;
-         en &lt;= $random;
-         @(posedge clk);
-      end
-      disable generate_clock;
-      $display("Tests completed.");
-   end 
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1-2:
-The two asserions see inside the always block. They are used to check to make sure that when clk is at posedge, there is never a write while the FIFO is full, or a read while the FIFO is empty. 
-Assertion 3:
-This assertion is used to check when clk is at posedge, the DUT.valid_wr and full signal can not be 1 at the same time. Its purpose is to avoid such a case: there is a write and the FIFO is full.
-Assertion 4:
-This assertion is used to check when clk is at posedge, the DUT.valid_rd and empty signal can not be 1 at the same time. Its purpose is to avoid such a case: there is a read and the FIFO is empty.
-Assertion 5:
-This assertion is to check if DUT.valid_wr is high, the full must be 0. Its purpose is to ensure when there is a write, the FIFO can not be full.
-Assertion 6:
-This assertion is to check if DUT.valid_rd is high, the empty must be 0. Its purpose is to ensure when there is a read, the FIFO can not be empty.</t>
-  </si>
-  <si>
-    <t>"module fifo_tb1;
-   localparam WIDTH = 8;
-   localparam DEPTH = 16;
-   logic             clk;
-   logic             rst;
-   logic             full;
-   logic             wr_en;
-   logic [WIDTH-1:0] wr_data;
-   logic             empty;
-   logic             rd_en; 
-   logic [WIDTH-1:0] rd_data;
-   fifo #(.WIDTH(WIDTH), .DEPTH(DEPTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;
-   end
-   initial begin
-      rst &lt;= 1'b1;
-      rd_en &lt;= 1'b0;
-      wr_en &lt;= 1'b0;
-      wr_data &lt;= '0;      
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; 10000; i++) begin
-         wr_data &lt;= $random;
-         wr_en &lt;= $random;
-         rd_en &lt;= $random;
-         @(posedge clk);         
-      end
-      disable generate_clock;
-      $display(""Tests Completed."");      
-   end // initial begin
-endmodule"</t>
-  </si>
-  <si>
-    <t>Assertion 1-2:
-To check certain FIFO properties, the two asserions see inside of the FIFO module. They are used to check to make sure that when clk is at posedge, there is never a write while the FIFO is full, or a read while the FIFO is empty. 
-Assertion 3:
-It first creates a property where if there is a valid write, we save the wr_data into the local data variable data. The valid write then implies that at some indefinite point in the future (i.e. ##[1:$]) there will be a valid read (i.e., rd_en is 1 and the FIFO is not empty) from the FIFO that has matching data .Then, this assertion checks whether the property can be satisfied and if it is satisfied, it will print a custom message containing the current time and rd_data.</t>
-  </si>
-  <si>
-    <t>module fifo_tb2;
-   localparam WIDTH = 8;
-   localparam DEPTH = 16;
-   logic             clk;
-   logic             rst;
-   logic             full;
-   logic             wr_en;
-   logic [WIDTH-1:0] wr_data;
-   logic             empty; 
-   logic             rd_en; 
-   logic [WIDTH-1:0] rd_data;
-   fifo #(.WIDTH(WIDTH), .DEPTH(DEPTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      rd_en &lt;= 1'b0;
-      wr_en &lt;= 1'b0;
-      wr_data &lt;= '0;      
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; 10000; i++) begin
-         wr_data &lt;= $random;
-         wr_en &lt;= $random;
-         rd_en &lt;= $random;
-         @(posedge clk);        
-      end
-      disable generate_clock;
-      $display("Tests Completed.");      
-   end  
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1-2:
-To check certain FIFO properties, the two asserions see inside of the FIFO module. They are used to check to make sure that when clk is at posedge, there is never a write while the FIFO is full, or a read while the FIFO is empty. 
-Assertion 3:
-For this assertion, we assign each write a unique tag, and then maintain a "serving" counter in function inc_tag and inc_serving so we can determine which read applies to which write. This assertion is to check: on each valid write, we save the current tag into a local variable,  update the global tag counter, and save the write data, then at some point in the future there will be a valid read with a wr_tag that matches the current serving ID. We only care about the first matching instance, so we use the first_match function. Finally, when there is a valid read with the matching tag, on the next cycle (i.e. ##1) the read data should match the original write data.</t>
-  </si>
-  <si>
-    <t>module fifo_tb3;
-   localparam WIDTH = 8;
-   localparam DEPTH = 16;
-   logic             clk;
-   logic             rst;
-   logic             full;
-   logic             wr_en;
-   logic [WIDTH-1:0] wr_data;
-   logic             empty; 
-   logic             rd_en; 
-   logic [WIDTH-1:0] rd_data;
-   fifo #(.WIDTH(WIDTH), .DEPTH(DEPTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      rd_en &lt;= 1'b0;
-      wr_en &lt;= 1'b0;
-      wr_data &lt;= '0;      
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; 10000; i++) begin
-         wr_data &lt;= $random;
-         wr_en &lt;= $random;
-         rd_en &lt;= $random;
-         @(posedge clk);         
-      end
-      disable generate_clock;
-      $display("Tests Completed.");
-   end         
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1-2:
-To check certain FIFO properties, the two asserions see inside of the FIFO module. They are used to check to make sure that when clk is at posedge, there is never a write while the FIFO is full, or a read while the FIFO is empty. 
-Assertion 3:
-The always_ff block imitates the functionality of the FIFO with a queue and the correct_rd_data is set as the first element of data stored in this FIFO. Then, this assertion is to check if the read data rd_data should equal the first element correct_rd_data.</t>
-  </si>
-  <si>
-    <t>module fifo_tb4;
-   localparam WIDTH = 8;
-   localparam DEPTH = 16;
-   logic             clk;
-   logic             rst;
-   logic             full;
-   logic             wr_en;
-   logic [WIDTH-1:0] wr_data;
-   logic             empty; 
-   logic             rd_en; 
-   logic [WIDTH-1:0] rd_data;
-   fifo #(.WIDTH(WIDTH), .DEPTH(DEPTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      rd_en &lt;= 1'b0;
-      wr_en &lt;= 1'b0;
-      wr_data &lt;= '0;      
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; 10000; i++) begin
-         wr_data &lt;= $random;
-         wr_en &lt;= $random;
-         rd_en &lt;= $random;
-         @(posedge clk);         
-      end
-      disable generate_clock;
-      $display("Tests Completed.");
-   end
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is an "immediate" assertion because it occurs within a function (or always block). It is used to check whether actual equals correct.</t>
-  </si>
-  <si>
-    <t>module mux2x1_tb;
-   logic in0, in1, sel;
-   logic out_assign, out_if, out_if2, out_case;   
-   localparam period = 20;
-   mux2x1_assign DUT_ASSIGN (.out(out_assign), .*);
-   mux2x1_if DUT_IF (.out(out_if), .*);
-   mux2x1_if2 DUT_IF2 (.out(out_if2), .*);
-   mux2x1_case DUT_CASE (.out(out_case), .*);
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is evaluated at the posedge of clk to check whether the output out equals the input in in the last cycle when rst is 0. Its purpose is to validate the output under the case of rst=0.
-Assertion 2:
-This assertion is evaluated at the posedge of clk to check whether the output out equals the input in in the last cycle if rst is 0. Its purpose is to validate the output under the case of rst=0.
-Assertion 3:
-This assertion is evaluated at the posedge of clk to check whether the output out equals 0 if rst is 1. Its purpose is to validate the output under the case of rst=1.
-Assertion 4:
-This assertion is an immediate assertion in an always blocks. When rst equals 1, this assertion will be used to check whether out equals 0.</t>
-  </si>
-  <si>
-    <t>module register_tb1;
-   localparam NUM_TESTS = 10000;
-   localparam WIDTH = 8;
-   logic clk, rst, en;
-   logic [WIDTH-1:0] in, out;
-   register #(.WIDTH(WIDTH)) DUT (.en(1'b1), .*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;      
-   end
-   initial begin : drive_inputs
-      $timeformat(-9, 0, " ns");         
-      rst &lt;= 1'b1;
-      in &lt;= 1'b0;      
-      en &lt;= 1'b1;
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin    
-         in &lt;= $random;
-         @(posedge clk);
-      end
-      disable generate_clock;
-      $display("Tests completed.");
-   end 
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is evaluated at the posedge of clk to check only when rst is 0 whether the output out equals the input in in the last cycle if  the enable signal en is 1. Its purpose is to validate the output under the case of rst=0 and en=1.
-Assertion 2:
-This assertion is evaluated at the posedge of clk to check only when rst is 0 whether the output out equals the output out in the last cycle if  the enable signal en is 0. Its purpose is to validate the output under the case of rst=0 and en=0.
-Assertion 3:
-This assertion is evaluated at the posedge of clk to check only when rst is 0 whether the output out does not change its value if  the enable signal en is 0. Its purpose is to validate the output under the case of rst=0 and en=0.
-Assertion 4:
-This assertion is an immediate assertion in the always block. When rst is 1, the assertion is used to check the output out equals 0.</t>
-  </si>
-  <si>
-    <t>module register_tb2;
-   localparam NUM_TESTS = 10000;
-   localparam WIDTH = 8;
-   logic clk, rst, en;
-   logic [WIDTH-1:0] in, out;
-   logic             output_check_en = 1'b0, first_en = 1'b0;
-   register #(.WIDTH(WIDTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while(1) #5 clk = ~clk;      
-   end
-   initial begin : drive_inputs
-      $timeformat(-9, 0, " ns");         
-      rst &lt;= 1'b1;
-      in &lt;= 1'b0;      
-      en &lt;= 1'b0;
-      for (int i=0; i &lt; 5; i++)
-        @(posedge clk);
-      rst &lt;= 1'b0;
-      for (int i=0; i &lt; NUM_TESTS; i++) begin    
-         in &lt;= $random;
-         en &lt;= $random;
-         @(posedge clk);
-         if (first_en) output_check_en = 1'b1;
-         if (en) first_en = 1'b1;         
-      end
-      disable generate_clock;
-      $display("Tests completed.");
-   end 
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion checks only when rst is 0 that once the pipeline reaches its defined latency (DUT.LATENCY), the output (out) is correct based on the input values from DUT.LATENCY cycles ago.
-Assertion 2:
-This assertion checks only when rst is 0 that valid_out remains low until the pipeline latency has been reached.
-Assertion 3:
-This assertion checks only when rst is 0 that valid_out matches valid_in from DUT.LATENCY cycles ago.
-Assertion 4:
-This assertion checks only when rst is 0 that out remains low until the pipeline latency has been reached.
-</t>
-  </si>
-  <si>
-    <t>module simple_pipeline_tb;
-   localparam int NUM_TESTS = 1000;
-   localparam int WIDTH = 8;
-   logic          clk, rst, valid_in, valid_out;
-   logic [WIDTH-1:0] in[8];
-   logic [WIDTH-1:0] out;
-   simple_pipeline #(.WIDTH(WIDTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while (1) #5 clk = ~clk;      
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      valid_in &lt;= 1'b0;
-      for (int i=0; i &lt; 8; i++) in[i] &lt;= '0;
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      @(posedge clk);
-      for (int i=0; i &lt; NUM_TESTS; i++) begin
-         for (int i=0; i &lt; 8; i++) in[i] = $random;
-         valid_in &lt;= $random;
-         @(posedge clk);
-      end
-      $display("Tests completed.");      
-      disable generate_clock;
-   end
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion is to check only when rst is 0 that once the pipeline reaches its defined latency (DUT.LATENCY), the output (out) matches the expected value produced by the model function based on the values of in from DUT.LATENCY cycles ago when en was high.
-Assertion 2:
-This assertion is to check only when rst is 0 that valid_out remains low until DUT.LATENCY clocks has gone, meaning no valid output is produced prematurely.
-Assertion 3:
-This assertion is to check only when rst is 0 that valid_out matches valid_in from DUT.LATENCY cycles ago, taking into account when the pipeline was enabled (en was high).
-Assertion 4:
-This assertion is to check only when rst is 0 that out remains zero until DUT.LATENCY clocks has gone.
-</t>
-  </si>
-  <si>
-    <t>module simple_pipeline_with_en_tb;
-   localparam int NUM_TESTS = 10000;
-   localparam int WIDTH = 8;
-   logic          clk, rst, en, valid_in, valid_out;
-   logic [WIDTH-1:0] in[8];
-   logic [WIDTH-1:0] out;
-   simple_pipeline_with_en #(.WIDTH(WIDTH)) DUT (.*);
-   initial begin : generate_clock
-      clk = 1'b0;
-      while (1) #5 clk = ~clk;      
-   end
-   initial begin
-      $timeformat(-9, 0, " ns");
-      rst &lt;= 1'b1;
-      en &lt;= 1'b0;      
-      valid_in &lt;= 1'b0;
-      for (int i=0; i &lt; 8; i++) in[i] &lt;= '0;
-      for (int i=0; i &lt; 5; i++) @(posedge clk);
-      @(negedge clk);
-      rst &lt;= 1'b0;
-      @(posedge clk);
-      for (int i=0; i &lt; NUM_TESTS; i++) begin
-         en &lt;= $random;  
-         for (int i=0; i &lt; 8; i++) in[i] &lt;= $random;
-         valid_in &lt;= $random;    
-         @(posedge clk);
-      end
-      $display("Tests completed.");      
-      disable generate_clock;
-   end
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is to check thathat AxiIdWidth (the width of the AXI transaction ID) is at least 1 bit.
-Assertion 2:
-This assertion is to check that AxiMaxWriteTxns (the maximum number of outstanding write transactions) is at least 1.</t>
-  </si>
-  <si>
-    <t>module axi_atop_filter #(
-  parameter int unsigned AxiIdWidth = 0,
-  parameter int unsigned AxiMaxWriteTxns = 0,
-  parameter type axi_req_t  = logic,
-  parameter type axi_resp_t = logic
-) (
-  input  logic      clk_i,
-  input  logic      rst_ni,
-  input  axi_req_t  slv_req_i,
-  output axi_resp_t slv_resp_o,
-  output axi_req_t  mst_req_o,
-  input  axi_resp_t mst_resp_i
-);
-  localparam int unsigned COUNTER_WIDTH = (AxiMaxWriteTxns == 1) ? 2 : $clog2(AxiMaxWriteTxns+1);
-  typedef struct packed {
-    logic                     underflow;
-    logic [COUNTER_WIDTH-1:0] cnt;
-  } cnt_t;
-  cnt_t   w_cnt_d, w_cnt_q;
-  typedef enum logic [2:0] {
-    W_RESET, W_FEEDTHROUGH, BLOCK_AW, ABSORB_W, HOLD_B, INJECT_B, WAIT_R
-  } w_state_e;
-  w_state_e   w_state_d, w_state_q;
-  typedef enum logic [1:0] { R_RESET, R_FEEDTHROUGH, INJECT_R, R_HOLD } r_state_e;
-  r_state_e   r_state_d, r_state_q;
-  typedef logic [AxiIdWidth-1:0] id_t;
-  id_t  id_d, id_q;
-  typedef logic [7:0] len_t;
-  len_t   r_beats_d,  r_beats_q;
-  typedef struct packed {
-    len_t len;
-  } r_resp_cmd_t;
-  r_resp_cmd_t  r_resp_cmd_push, r_resp_cmd_pop;
-  logic aw_without_complete_w_downstream,
-        complete_w_without_aw_downstream,
-        r_resp_cmd_push_valid,  r_resp_cmd_push_ready,
-        r_resp_cmd_pop_valid,   r_resp_cmd_pop_ready;
-  assign aw_without_complete_w_downstream = !w_cnt_q.underflow &amp;&amp; (w_cnt_q.cnt &gt; 0);
-  assign complete_w_without_aw_downstream = w_cnt_q.underflow &amp;&amp; &amp;(w_cnt_q.cnt);
-  always_comb begin
-    mst_req_o.aw_valid  = 1'b0;
-    slv_resp_o.aw_ready = 1'b0;
-    mst_req_o.w_valid   = 1'b0;
-    slv_resp_o.w_ready  = 1'b0;
-    mst_req_o.b_ready   = slv_req_i.b_ready;
-    slv_resp_o.b_valid  = mst_resp_i.b_valid;
-    slv_resp_o.b        = mst_resp_i.b;
-    id_d = id_q;
-    r_resp_cmd_push_valid = 1'b0;
-    w_state_d = w_state_q;
-    unique case (w_state_q)
-      W_RESET: w_state_d = W_FEEDTHROUGH;
-      W_FEEDTHROUGH: begin
-        if (complete_w_without_aw_downstream || (w_cnt_q.cnt &lt; AxiMaxWriteTxns)) begin
-          mst_req_o.aw_valid  = slv_req_i.aw_valid;
-          slv_resp_o.aw_ready = mst_resp_i.aw_ready;
-        end
-        if (aw_without_complete_w_downstream
-            || ((slv_req_i.aw_valid &amp;&amp; slv_req_i.aw.atop[5:4] == axi_pkg::ATOP_NONE)
-                &amp;&amp; !complete_w_without_aw_downstream)
-        ) begin
-          mst_req_o.w_valid  = slv_req_i.w_valid;
-          slv_resp_o.w_ready = mst_resp_i.w_ready;
-        end
-        if (slv_req_i.aw_valid &amp;&amp; slv_req_i.aw.atop[5:4] != axi_pkg::ATOP_NONE) begin
-          mst_req_o.aw_valid  = 1'b0; 
-          slv_resp_o.aw_ready = 1'b1;
-          id_d = slv_req_i.aw.id;
-          if (slv_req_i.aw.atop[axi_pkg::ATOP_R_RESP]) begin
-            r_resp_cmd_push_valid = 1'b1;
-          end
-          if (aw_without_complete_w_downstream) begin
-            w_state_d = BLOCK_AW;
-          end else begin
-            mst_req_o.w_valid  = 1'b0;
-            slv_resp_o.w_ready = 1'b1;
-            if (slv_req_i.w_valid &amp;&amp; slv_req_i.w.last) begin
-              if (slv_resp_o.b_valid &amp;&amp; !slv_req_i.b_ready) begin
-                w_state_d = HOLD_B;
-              end else begin
-                w_state_d = INJECT_B;
-              end
-            end else begin
-              w_state_d = ABSORB_W;
-            end
-          end
-        end
-      end
-      BLOCK_AW: begin
-        if (aw_without_complete_w_downstream) begin
-          mst_req_o.w_valid  = slv_req_i.w_valid;
-          slv_resp_o.w_ready = mst_resp_i.w_ready;
-        end else begin
-          slv_resp_o.w_ready = 1'b1;
-          if (slv_req_i.w_valid &amp;&amp; slv_req_i.w.last) begin
-            if (slv_resp_o.b_valid &amp;&amp; !slv_req_i.b_ready) begin
-              w_state_d = HOLD_B;
-            end else begin
-              w_state_d = INJECT_B;
-            end
-          end else begin
-            w_state_d = ABSORB_W;
-          end
-        end
-      end
-      ABSORB_W: begin
-        slv_resp_o.w_ready = 1'b1;
-        if (slv_req_i.w_valid &amp;&amp; slv_req_i.w.last) begin
-          if (slv_resp_o.b_valid &amp;&amp; !slv_req_i.b_ready) begin
-            w_state_d = HOLD_B;
-          end else begin
-            w_state_d = INJECT_B;
-          end
-        end
-      end
-      HOLD_B: begin
-        if (slv_resp_o.b_valid &amp;&amp; slv_req_i.b_ready) begin
-          w_state_d = INJECT_B;
-        end
-      end
-      INJECT_B: begin
-        mst_req_o.b_ready = 1'b0;
-        slv_resp_o.b = '0;
-        slv_resp_o.b.id = id_q;
-        slv_resp_o.b.resp = axi_pkg::RESP_SLVERR;
-        slv_resp_o.b_valid = 1'b1;
-        if (slv_req_i.b_ready) begin
-          if (r_resp_cmd_pop_valid &amp;&amp; !r_resp_cmd_pop_ready) begin
-            w_state_d = WAIT_R;
-          end else begin
-            w_state_d = W_FEEDTHROUGH;
-          end
-        end
-      end
-      WAIT_R: begin
-        if (!r_resp_cmd_pop_valid) begin
-          w_state_d = W_FEEDTHROUGH;
-        end
-      end
-      default: w_state_d = W_RESET;
-    endcase
-  end
-  always_comb begin
-    mst_req_o.aw      = slv_req_i.aw;
-    mst_req_o.aw.atop = '0;
-  end
-  assign mst_req_o.w = slv_req_i.w;
-  always_comb begin
-    slv_resp_o.r       = mst_resp_i.r;
-    slv_resp_o.r_valid = mst_resp_i.r_valid;
-    mst_req_o.r_ready  = slv_req_i.r_ready;
-    r_resp_cmd_pop_ready = 1'b0;
-    r_beats_d = r_beats_q;
-    r_state_d = r_state_q;
-    unique case (r_state_q)
-      R_RESET: r_state_d = R_FEEDTHROUGH;
-      R_FEEDTHROUGH: begin
-        if (mst_resp_i.r_valid &amp;&amp; !slv_req_i.r_ready) begin
-          r_state_d = R_HOLD;
-        end else if (r_resp_cmd_pop_valid) begin
-          r_beats_d = r_resp_cmd_pop.len;
-          r_state_d = INJECT_R;
-        end
-      end
-      INJECT_R: begin
-        mst_req_o.r_ready  = 1'b0;
-        slv_resp_o.r       = '0;
-        slv_resp_o.r.id    = id_q;
-        slv_resp_o.r.resp  = axi_pkg::RESP_SLVERR;
-        slv_resp_o.r.last  = (r_beats_q == '0);
-        slv_resp_o.r_valid = 1'b1;
-        if (slv_req_i.r_ready) begin
-          if (slv_resp_o.r.last) begin
-            r_resp_cmd_pop_ready = 1'b1;
-            r_state_d = R_FEEDTHROUGH;
-          end else begin
-            r_beats_d -= 1;
-          end
-        end
-      end
-      R_HOLD: begin
-        if (mst_resp_i.r_valid &amp;&amp; slv_req_i.r_ready) begin
-          r_state_d = R_FEEDTHROUGH;
-        end
-      end
-      default: r_state_d = R_RESET;
-    endcase
-  end
-  assign mst_req_o.ar        = slv_req_i.ar;
-  assign mst_req_o.ar_valid  = slv_req_i.ar_valid;
-  assign slv_resp_o.ar_ready = mst_resp_i.ar_ready;
-  always_comb begin
-    w_cnt_d = w_cnt_q;
-    if (mst_req_o.aw_valid &amp;&amp; mst_resp_i.aw_ready) begin
-      w_cnt_d.cnt += 1;
-    end
-    if (mst_req_o.w_valid &amp;&amp; mst_resp_i.w_ready &amp;&amp; mst_req_o.w.last) begin
-      w_cnt_d.cnt -= 1;
-    end
-    if (w_cnt_q.underflow &amp;&amp; (w_cnt_d.cnt == '0)) begin
-      w_cnt_d.underflow = 1'b0;
-    end else if (w_cnt_q.cnt == '0 &amp;&amp; &amp;(w_cnt_d.cnt)) begin
-      w_cnt_d.underflow = 1'b1;
-    end
-  end
-  always_ff @(posedge clk_i, negedge rst_ni) begin
-    if (!rst_ni) begin
-      id_q &lt;= '0;
-      r_beats_q &lt;= '0;
-      r_state_q &lt;= R_RESET;
-      w_cnt_q &lt;= '{default: '0};
-      w_state_q &lt;= W_RESET;
-    end else begin
-      id_q &lt;= id_d;
-      r_beats_q &lt;= r_beats_d;
-      r_state_q &lt;= r_state_d;
-      w_cnt_q &lt;= w_cnt_d;
-      w_state_q &lt;= w_state_d;
-    end
-  end
-  stream_register #(
-    .T(r_resp_cmd_t)
-  ) r_resp_cmd (
-    .clk_i      (clk_i),
-    .rst_ni     (rst_ni),
-    .clr_i      (1'b0),
-    .testmode_i (1'b0),
-    .valid_i    (r_resp_cmd_push_valid),
-    .ready_o    (r_resp_cmd_push_ready),
-    .data_i     (r_resp_cmd_push),
-    .valid_o    (r_resp_cmd_pop_valid),
-    .ready_i    (r_resp_cmd_pop_ready),
-    .data_o     (r_resp_cmd_pop)
-  );
-  assign r_resp_cmd_push.len = slv_req_i.aw.len;
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion is to check that AXI_ADDR_WIDTH, the width of the AXI address signal, is at least 1 bit.
-Assertion 2:
-This assertion is to check that AXI_DATA_WIDTH, the width of the AXI data signal, is at least 1 bit.
-Assertion 2:
-This assertion is to check that AXI_USER_WIDTH, the width of the AXI data signal, is at least 1 bit.
-</t>
-  </si>
-  <si>
-    <t>module axi_atop_filter_intf #(
-  parameter int unsigned AXI_ID_WIDTH   = 0,
-  parameter int unsigned AXI_ADDR_WIDTH = 0,
-  parameter int unsigned AXI_DATA_WIDTH = 0,
-  parameter int unsigned AXI_USER_WIDTH = 0,
-  parameter int unsigned AXI_MAX_WRITE_TXNS = 0
-) (
-  input  logic    clk_i,
-  input  logic    rst_ni,
-  AXI_BUS.Slave   slv,
-  AXI_BUS.Master  mst
-);
-  typedef logic [AXI_ID_WIDTH-1:0]     id_t;
-  typedef logic [AXI_ADDR_WIDTH-1:0]   addr_t;
-  typedef logic [AXI_DATA_WIDTH-1:0]   data_t;
-  typedef logic [AXI_DATA_WIDTH/8-1:0] strb_t;
-  typedef logic [AXI_USER_WIDTH-1:0]   user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t, user_t)
-  `AXI_TYPEDEF_B_CHAN_T(b_chan_t, id_t, user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_R_CHAN_T(r_chan_t, data_t, id_t, user_t)
-  `AXI_TYPEDEF_REQ_T(axi_req_t, aw_chan_t, w_chan_t, ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(axi_resp_t, b_chan_t, r_chan_t)
-  axi_req_t  slv_req,  mst_req;
-  axi_resp_t slv_resp, mst_resp;
-  `AXI_ASSIGN_TO_REQ(slv_req, slv)
-  `AXI_ASSIGN_FROM_RESP(slv, slv_resp)
-  `AXI_ASSIGN_FROM_REQ(mst, mst_req)
-  `AXI_ASSIGN_TO_RESP(mst_resp, mst)
-  axi_atop_filter #(
-    .AxiIdWidth      ( AXI_ID_WIDTH       ),
-    .AxiMaxWriteTxns ( AXI_MAX_WRITE_TXNS ),
-    .axi_req_t       ( axi_req_t          ),
-    .axi_resp_t      ( axi_resp_t         )
-  ) i_axi_atop_filter (
-    .clk_i,
-    .rst_ni,
-    .slv_req_i  ( slv_req  ),
-    .slv_resp_o ( slv_resp ),
-    .mst_req_o  ( mst_req  ),
-    .mst_resp_i ( mst_resp )
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion is to check that any AW (write address) transaction output by the master port (mst_req_o.aw_valid) has a length (mst_req_o.aw.len) of zero, indicating a single-beat transaction.
-Assertion 2:
-This assertion is to check that any AR (read address) transaction output by the master port (mst_req_o.ar_valid) has a length of zero, confirming a single-beat transaction.
-</t>
-  </si>
-  <si>
-    <t>module axi_burst_splitter #(
-  parameter int unsigned MaxReadTxns  = 32'd0,
-  parameter int unsigned MaxWriteTxns = 32'd0,
-  parameter bit          FullBW       = 0,
-  parameter int unsigned AddrWidth    = 32'd0,
-  parameter int unsigned DataWidth    = 32'd0,
-  parameter int unsigned IdWidth      = 32'd0,
-  parameter int unsigned UserWidth    = 32'd0,
-  parameter type         axi_req_t    = logic,
-  parameter type         axi_resp_t   = logic
-) (
-  input  logic  clk_i,
-  input  logic  rst_ni,
-  input  axi_req_t  slv_req_i,
-  output axi_resp_t slv_resp_o,
-  output axi_req_t  mst_req_o,
-  input  axi_resp_t mst_resp_i
-);
-  typedef logic [AddrWidth-1:0]   addr_t;
-  typedef logic [DataWidth-1:0]   data_t;
-  typedef logic [IdWidth-1:0]     id_t;
-  typedef logic [DataWidth/8-1:0] strb_t;
-  typedef logic [UserWidth-1:0]   user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t, user_t)
-  `AXI_TYPEDEF_B_CHAN_T(b_chan_t, id_t, user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_R_CHAN_T(r_chan_t, data_t, id_t, user_t)
-  axi_req_t   act_req,  unsupported_req;
-  axi_resp_t  act_resp, unsupported_resp;
-  logic sel_aw_unsupported, sel_ar_unsupported;
-  localparam int unsigned MaxTxns = (MaxReadTxns &gt; MaxWriteTxns) ? MaxReadTxns : MaxWriteTxns;
-  axi_demux #(
-    .AxiIdWidth   ( IdWidth     ),
-    .aw_chan_t    ( aw_chan_t   ),
-    .w_chan_t     ( w_chan_t    ),
-    .b_chan_t     ( b_chan_t    ),
-    .ar_chan_t    ( ar_chan_t   ),
-    .r_chan_t     ( r_chan_t    ),
-    .axi_req_t    ( axi_req_t   ),
-    .axi_resp_t   ( axi_resp_t  ),
-    .NoMstPorts   ( 2           ),
-    .MaxTrans     ( MaxTxns     ),
-    .AxiLookBits  ( IdWidth     ),
-    .SpillAw      ( 1'b0        ),
-    .SpillW       ( 1'b0        ),
-    .SpillB       ( 1'b0        ),
-    .SpillAr      ( 1'b0        ),
-    .SpillR       ( 1'b0        )
-  ) i_demux_supported_vs_unsupported (
-    .clk_i,
-    .rst_ni,
-    .test_i           ( 1'b0                          ),
-    .slv_req_i,
-    .slv_aw_select_i  ( sel_aw_unsupported            ),
-    .slv_ar_select_i  ( sel_ar_unsupported            ),
-    .slv_resp_o,
-    .mst_reqs_o       ( {unsupported_req,  act_req}   ),
-    .mst_resps_i      ( {unsupported_resp, act_resp}  )
-  );
-  function bit txn_supported(axi_pkg::atop_t atop, axi_pkg::burst_t burst, axi_pkg::cache_t cache,
-      axi_pkg::len_t len);
-    if (len == '0) return 1'b1;
-    if (burst == axi_pkg::BURST_WRAP) return 1'b0;
-    if (atop != '0) return 1'b0;
-    if (!axi_pkg::modifiable(cache)) begin
-      return (burst == axi_pkg::BURST_INCR) &amp; (len &gt; 16);
-    end
-    return 1'b1;
-  endfunction
-  assign sel_aw_unsupported = ~txn_supported(slv_req_i.aw.atop, slv_req_i.aw.burst,
-                                              slv_req_i.aw.cache, slv_req_i.aw.len);
-  assign sel_ar_unsupported = ~txn_supported('0, slv_req_i.ar.burst,
-                                              slv_req_i.ar.cache, slv_req_i.ar.len);
-  axi_err_slv #(
-    .AxiIdWidth ( IdWidth               ),
-    .axi_req_t  ( axi_req_t             ),
-    .axi_resp_t ( axi_resp_t            ),
-    .Resp       ( axi_pkg::RESP_SLVERR  ),
-    .ATOPs      ( 1'b0                  ), 
-    .MaxTrans   ( 1                     )  
-  ) i_err_slv (
-    .clk_i,
-    .rst_ni,
-    .test_i     ( 1'b0              ),
-    .slv_req_i  ( unsupported_req   ),
-    .slv_resp_o ( unsupported_resp  )
-  );
-  logic           w_cnt_dec, w_cnt_req, w_cnt_gnt, w_cnt_err;
-  axi_pkg::len_t  w_cnt_len;
-  axi_burst_splitter_ax_chan #(
-    .chan_t   ( aw_chan_t    ),
-    .IdWidth  ( IdWidth      ),
-    .MaxTxns  ( MaxWriteTxns ),
-    .FullBW   ( FullBW       )
-  ) i_axi_burst_splitter_aw_chan (
-    .clk_i,
-    .rst_ni,
-    .ax_i           ( act_req.aw           ),
-    .ax_valid_i     ( act_req.aw_valid     ),
-    .ax_ready_o     ( act_resp.aw_ready    ),
-    .ax_o           ( mst_req_o.aw         ),
-    .ax_valid_o     ( mst_req_o.aw_valid   ),
-    .ax_ready_i     ( mst_resp_i.aw_ready  ),
-    .cnt_id_i       ( mst_resp_i.b.id      ),
-    .cnt_len_o      ( w_cnt_len            ),
-    .cnt_set_err_i  ( mst_resp_i.b.resp[1] ),
-    .cnt_err_o      ( w_cnt_err            ),
-    .cnt_dec_i      ( w_cnt_dec            ),
-    .cnt_req_i      ( w_cnt_req            ),
-    .cnt_gnt_o      ( w_cnt_gnt            )
-  );
-  always_comb begin
-    mst_req_o.w        = act_req.w;
-    mst_req_o.w.last   = 1'b1; 
-  end
-  assign mst_req_o.w_valid  = act_req.w_valid;
-  assign act_resp.w_ready   = mst_resp_i.w_ready;
-  enum logic {BReady, BWait} b_state_d, b_state_q;
-  logic b_err_d, b_err_q;
-  always_comb begin
-    mst_req_o.b_ready = 1'b0;
-    act_resp.b        = '0;
-    act_resp.b_valid  = 1'b0;
-    w_cnt_dec         = 1'b0;
-    w_cnt_req         = 1'b0;
-    b_err_d           = b_err_q;
-    b_state_d         = b_state_q;
-    unique case (b_state_q)
-      BReady: begin
-        if (mst_resp_i.b_valid) begin
-          w_cnt_req = 1'b1;
-          if (w_cnt_gnt) begin
-            if (w_cnt_len == 8'd0) begin
-              act_resp.b = mst_resp_i.b;
-              if (w_cnt_err) begin
-                act_resp.b.resp = axi_pkg::RESP_SLVERR;
-              end
-              act_resp.b_valid  = 1'b1;
-              w_cnt_dec         = 1'b1;
-              if (act_req.b_ready) begin
-                mst_req_o.b_ready = 1'b1;
-              end else begin
-                b_state_d = BWait;
-                b_err_d   = w_cnt_err;
-              end
-            end else begin
-              mst_req_o.b_ready = 1'b1;
-              w_cnt_dec         = 1'b1;
-            end
-          end
-        end
-      end
-      BWait: begin
-        act_resp.b = mst_resp_i.b;
-        if (b_err_q) begin
-          act_resp.b.resp = axi_pkg::RESP_SLVERR;
-        end
-        act_resp.b_valid  = 1'b1;
-        if (mst_resp_i.b_valid &amp;&amp; act_req.b_ready) begin
-          mst_req_o.b_ready = 1'b1;
-          b_state_d         = BReady;
-        end
-      end
-      default: /*do nothing*/;
-    endcase
-  end
-  logic           r_cnt_dec, r_cnt_req, r_cnt_gnt;
-  axi_pkg::len_t  r_cnt_len;
-  axi_burst_splitter_ax_chan #(
-    .chan_t   ( ar_chan_t   ),
-    .IdWidth  ( IdWidth     ),
-    .MaxTxns  ( MaxReadTxns ),
-    .FullBW   ( FullBW      )
-  ) i_axi_burst_splitter_ar_chan (
-    .clk_i,
-    .rst_ni,
-    .ax_i           ( act_req.ar          ),
-    .ax_valid_i     ( act_req.ar_valid    ),
-    .ax_ready_o     ( act_resp.ar_ready   ),
-    .ax_o           ( mst_req_o.ar        ),
-    .ax_valid_o     ( mst_req_o.ar_valid  ),
-    .ax_ready_i     ( mst_resp_i.ar_ready ),
-    .cnt_id_i       ( mst_resp_i.r.id     ),
-    .cnt_len_o      ( r_cnt_len           ),
-    .cnt_set_err_i  ( 1'b0                ),
-    .cnt_err_o      (                     ),
-    .cnt_dec_i      ( r_cnt_dec           ),
-    .cnt_req_i      ( r_cnt_req           ),
-    .cnt_gnt_o      ( r_cnt_gnt           )
-  );
-  logic r_last_d, r_last_q;
-  enum logic {RFeedthrough, RWait} r_state_d, r_state_q;
-  always_comb begin
-    r_cnt_dec         = 1'b0;
-    r_cnt_req         = 1'b0;
-    r_last_d          = r_last_q;
-    r_state_d         = r_state_q;
-    mst_req_o.r_ready = 1'b0;
-    act_resp.r        = mst_resp_i.r;
-    act_resp.r.last   = 1'b0;
-    act_resp.r_valid  = 1'b0;
-    unique case (r_state_q)
-      RFeedthrough: begin
-        if (mst_resp_i.r_valid) begin
-          r_cnt_req = 1'b1;
-          if (r_cnt_gnt) begin
-            r_last_d = (r_cnt_len == 8'd0);
-            act_resp.r.last   = r_last_d;
-            r_cnt_dec         = 1'b1;
-            act_resp.r_valid  = 1'b1;
-            if (act_req.r_ready) begin
-              mst_req_o.r_ready = 1'b1;
-            end else begin
-              r_state_d = RWait;
-            end
-          end
-        end
-      end
-      RWait: begin
-        act_resp.r.last   = r_last_q;
-        act_resp.r_valid  = mst_resp_i.r_valid;
-        if (mst_resp_i.r_valid &amp;&amp; act_req.r_ready) begin
-          mst_req_o.r_ready = 1'b1;
-          r_state_d         = RFeedthrough;
-        end
-      end
-      default: 
-    endcase
-  end
-  `FFARN(b_err_q, b_err_d, 1'b0, clk_i, rst_ni)
-  `FFARN(b_state_q, b_state_d, BReady, clk_i, rst_ni)
-  `FFARN(r_last_q, r_last_d, 1'b0, clk_i, rst_ni)
-  `FFARN(r_state_q, r_state_d, RFeedthrough, clk_i, rst_ni)
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertions 1-4:
-These assertions are to check whether the basic width parameters (ADDR_WIDTH, DATA_WIDTH, ID_WIDTH, and USER_WIDTH) are greater than zero.
-Assertions 5-8:
-These assertions are to check whether the width parameters for the slave interface (in) match the expected values specified by ADDR_WIDTH, DATA_WIDTH, ID_WIDTH, and USER_WIDTH.
-Assertions 9-12:
-These assertions are to check whether the width parameters for the master interface (out) match the module parameters.
-</t>
-  </si>
-  <si>
-    <t>module axi_cut_intf #(
-  parameter bit          BYPASS     = 1'b0,
-  parameter int unsigned ADDR_WIDTH = 0,
-  parameter int unsigned DATA_WIDTH = 0,
-  parameter int unsigned ID_WIDTH   = 0,
-  parameter int unsigned USER_WIDTH = 0
-) (
-  input logic     clk_i  ,
-  input logic     rst_ni ,
-  AXI_BUS.Slave   in     ,
-  AXI_BUS.Master  out
-);
-  typedef logic [ID_WIDTH-1:0]     id_t;
-  typedef logic [ADDR_WIDTH-1:0]   addr_t;
-  typedef logic [DATA_WIDTH-1:0]   data_t;
-  typedef logic [DATA_WIDTH/8-1:0] strb_t;
-  typedef logic [USER_WIDTH-1:0]   user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t, user_t)
-  `AXI_TYPEDEF_B_CHAN_T(b_chan_t, id_t, user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_R_CHAN_T(r_chan_t, data_t, id_t, user_t)
-  `AXI_TYPEDEF_REQ_T(axi_req_t, aw_chan_t, w_chan_t, ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(axi_resp_t, b_chan_t, r_chan_t)
-  axi_req_t  slv_req,  mst_req;
-  axi_resp_t slv_resp, mst_resp;
-  `AXI_ASSIGN_TO_REQ(slv_req, in)
-  `AXI_ASSIGN_FROM_RESP(in, slv_resp)
-  `AXI_ASSIGN_FROM_REQ(out, mst_req)
-  `AXI_ASSIGN_TO_RESP(mst_resp, out)
-  axi_cut #(
-    .Bypass     (     BYPASS ),
-    .aw_chan_t  (  aw_chan_t ),
-    .w_chan_t   (   w_chan_t ),
-    .b_chan_t   (   b_chan_t ),
-    .ar_chan_t  (  ar_chan_t ),
-    .r_chan_t   (   r_chan_t ),
-    .axi_req_t  (  axi_req_t ),
-    .axi_resp_t ( axi_resp_t )
-  ) i_axi_cut (
-    .clk_i,
-    .rst_ni,
-    .slv_req_i  ( slv_req  ),
-    .slv_resp_o ( slv_resp ),
-    .mst_req_o  ( mst_req  ),
-    .mst_resp_i ( mst_resp )
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertions 1-2:
-These assertions are to check whether the basic width parameters (ADDR_WIDTH, DATA_WIDTH) are greater than zero.
-Assertions 3-4:
-The two assertions are to check whether the address width (in.AXI_ADDR_WIDTH) and the data width (in.AXI_DATA_WIDTH) of the slave interface matches the module parameters ADDR_WIDTH, DATA_WIDTH.
-Assertions 5-6:
-The two assertions are to check whether the address width (out.AXI_ADDR_WIDTH) and the data width (out.AXI_DATA_WIDTH) of the master interface matches the module parameters ADDR_WIDTH, DATA_WIDTH.
-</t>
-  </si>
-  <si>
-    <t>module axi_lite_cut_intf #(
-  parameter bit          BYPASS     = 1'b0,
-  parameter int unsigned ADDR_WIDTH = 0,
-  parameter int unsigned DATA_WIDTH = 0
-) (
-  input logic     clk_i  ,
-  input logic     rst_ni ,
-  AXI_LITE.Slave  in     ,
-  AXI_LITE.Master out
-);
-  typedef logic [ADDR_WIDTH-1:0]   addr_t;
-  typedef logic [DATA_WIDTH-1:0]   data_t;
-  typedef logic [DATA_WIDTH/8-1:0] strb_t;
-  `AXI_LITE_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t)
-  `AXI_LITE_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t)
-  `AXI_LITE_TYPEDEF_B_CHAN_T(b_chan_t)
-  `AXI_LITE_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t)
-  `AXI_LITE_TYPEDEF_R_CHAN_T(r_chan_t, data_t)
-  `AXI_LITE_TYPEDEF_REQ_T(axi_req_t, aw_chan_t, w_chan_t, ar_chan_t)
-  `AXI_LITE_TYPEDEF_RESP_T(axi_resp_t, b_chan_t, r_chan_t)
-  axi_req_t   slv_req,  mst_req;
-  axi_resp_t  slv_resp, mst_resp;
-  `AXI_LITE_ASSIGN_TO_REQ(slv_req, in)
-  `AXI_LITE_ASSIGN_FROM_RESP(in, slv_resp)
-  `AXI_LITE_ASSIGN_FROM_REQ(out, mst_req)
-  `AXI_LITE_ASSIGN_TO_RESP(mst_resp, out)
-  axi_cut #(
-    .Bypass     (     BYPASS ),
-    .aw_chan_t  (  aw_chan_t ),
-    .w_chan_t   (   w_chan_t ),
-    .b_chan_t   (   b_chan_t ),
-    .ar_chan_t  (  ar_chan_t ),
-    .r_chan_t   (   r_chan_t ),
-    .axi_req_t  (  axi_req_t ),
-    .axi_resp_t ( axi_resp_t )
-  ) i_axi_cut (
-    .clk_i,
-    .rst_ni,
-    .slv_req_i  ( slv_req  ),
-    .slv_resp_o ( slv_resp ),
-    .mst_req_o  ( mst_req  ),
-    .mst_resp_i ( mst_resp )
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertions 1-4: 
-These assertions are to check whether the basic width parameters (AXI_ADDR_WIDTH, AXI_DATA_WIDTH, AXI_ID_WIDTH, and AXI_USER_WIDTH) are greater than zero.</t>
-  </si>
-  <si>
-    <t>module axi_delayer_intf #(
-  parameter int unsigned AXI_ID_WIDTH        = 0,
-  parameter int unsigned AXI_ADDR_WIDTH      = 0,
-  parameter int unsigned AXI_DATA_WIDTH      = 0,
-  parameter int unsigned AXI_USER_WIDTH      = 0,
-  parameter bit          STALL_RANDOM_INPUT  = 0,
-  parameter bit          STALL_RANDOM_OUTPUT = 0,
-  parameter int unsigned FIXED_DELAY_INPUT   = 1,
-  parameter int unsigned FIXED_DELAY_OUTPUT  = 1
-) (
-  input  logic    clk_i,
-  input  logic    rst_ni,
-  AXI_BUS.Slave   slv,
-  AXI_BUS.Master  mst
-);
-  typedef logic [AXI_ID_WIDTH-1:0]     id_t;
-  typedef logic [AXI_ADDR_WIDTH-1:0]   addr_t;
-  typedef logic [AXI_DATA_WIDTH-1:0]   data_t;
-  typedef logic [AXI_DATA_WIDTH/8-1:0] strb_t;
-  typedef logic [AXI_USER_WIDTH-1:0]   user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t, user_t)
-  `AXI_TYPEDEF_B_CHAN_T(b_chan_t, id_t, user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_R_CHAN_T(r_chan_t, data_t, id_t, user_t)
-  `AXI_TYPEDEF_REQ_T(axi_req_t, aw_chan_t, w_chan_t, ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(axi_resp_t, b_chan_t, r_chan_t)
-  axi_req_t  slv_req,  mst_req;
-  axi_resp_t slv_resp, mst_resp;
-  `AXI_ASSIGN_TO_REQ(slv_req, slv)
-  `AXI_ASSIGN_FROM_RESP(slv, slv_resp)
-  `AXI_ASSIGN_FROM_REQ(mst, mst_req)
-  `AXI_ASSIGN_TO_RESP(mst_resp, mst)
-  axi_delayer #(
-    .aw_chan_t         (           aw_chan_t ),
-    .w_chan_t          (            w_chan_t ),
-    .b_chan_t          (            b_chan_t ),
-    .ar_chan_t         (           ar_chan_t ),
-    .r_chan_t          (            r_chan_t ),
-    .axi_req_t         (           axi_req_t ),
-    .axi_resp_t        (          axi_resp_t ),
-    .StallRandomInput  ( STALL_RANDOM_INPUT  ),
-    .StallRandomOutput ( STALL_RANDOM_OUTPUT ),
-    .FixedDelayInput   ( FIXED_DELAY_INPUT   ),
-    .FixedDelayOutput  ( FIXED_DELAY_OUTPUT  )
-  ) i_axi_delayer (
-    .clk_i,   // Clock
-    .rst_ni,  // Asynchronous reset active low
-    .slv_req_i  ( slv_req  ),
-    .slv_resp_o ( slv_resp ),
-    .mst_req_o  ( mst_req  ),
-    .mst_resp_i ( mst_resp )
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-This assertion is to check only when rst_ni is 0 whether no underflow occurs for each counter when a pop operation is attempted on the ID-specific counters (pop_en[i]).
-</t>
-  </si>
-  <si>
-    <t>module axi_demux_id_counters #(
-  parameter int unsigned AxiIdBits         = 2,
-  parameter int unsigned CounterWidth      = 4,
-  parameter type         mst_port_select_t = logic
-) (
-  input                        clk_i, 
-  input                        rst_ni, 
-  input  logic [AxiIdBits-1:0] lookup_axi_id_i,
-  output mst_port_select_t     lookup_mst_select_o,
-  output logic                 lookup_mst_select_occupied_o,
-  output logic                 full_o,
-  input  logic [AxiIdBits-1:0] push_axi_id_i,
-  input  mst_port_select_t     push_mst_select_i,
-  input  logic                 push_i,
-  input  logic [AxiIdBits-1:0] inject_axi_id_i,
-  input  logic                 inject_i,
-  input  logic [AxiIdBits-1:0] pop_axi_id_i,
-  input  logic                 pop_i
-);
-  localparam int unsigned NoCounters = 2**AxiIdBits;
-  typedef logic [CounterWidth-1:0] cnt_t;
-  mst_port_select_t [NoCounters-1:0] mst_select_q;
-  logic [NoCounters-1:0] push_en, inject_en, pop_en, occupied, cnt_full;
-  assign lookup_mst_select_o          = mst_select_q[lookup_axi_id_i];
-  assign lookup_mst_select_occupied_o = occupied[lookup_axi_id_i];
-  assign push_en   = (push_i)   ? (1 &lt;&lt; push_axi_id_i)   : '0;
-  assign inject_en = (inject_i) ? (1 &lt;&lt; inject_axi_id_i) : '0;
-  assign pop_en    = (pop_i)    ? (1 &lt;&lt; pop_axi_id_i)    : '0;
-  assign full_o    = |cnt_full;
-  for (genvar i = 0; i &lt; NoCounters; i++) begin : gen_counters
-    logic cnt_en, cnt_down, overflow;
-    cnt_t cnt_delta, in_flight;
-    always_comb begin
-      unique case ({push_en[i], inject_en[i], pop_en[i]})
-        3'b001  : begin
-          cnt_en    = 1'b1;
-          cnt_down  = 1'b1;
-          cnt_delta = cnt_t'(1);
-        end
-        3'b010  : begin
-          cnt_en    = 1'b1;
-          cnt_down  = 1'b0;
-          cnt_delta = cnt_t'(1);
-        end
-        3'b100  : begin // push_i = +1
-          cnt_en    = 1'b1;
-          cnt_down  = 1'b0;
-          cnt_delta = cnt_t'(1);
-        end
-        3'b110  : begin
-          cnt_en    = 1'b1;
-          cnt_down  = 1'b0;
-          cnt_delta = cnt_t'(2);
-        end
-        3'b111  : begin
-          cnt_en    = 1'b1;
-          cnt_down  = 1'b0;
-          cnt_delta = cnt_t'(1);
-        end
-        default : begin
-          cnt_en    = 1'b0;
-          cnt_down  = 1'b0;
-          cnt_delta = cnt_t'(0);
-        end
-      endcase
-    end
-    delta_counter #(
-      .WIDTH           ( CounterWidth ),
-      .STICKY_OVERFLOW ( 1'b0         )
-    ) i_in_flight_cnt (
-      .clk_i      ( clk_i     ),
-      .rst_ni     ( rst_ni    ),
-      .clear_i    ( 1'b0      ),
-      .en_i       ( cnt_en    ),
-      .load_i     ( 1'b0      ),
-      .down_i     ( cnt_down  ),
-      .delta_i    ( cnt_delta ),
-      .d_i        ( '0        ),
-      .q_o        ( in_flight ),
-      .overflow_o ( overflow  )
-    );
-    assign occupied[i] = |in_flight;
-    assign cnt_full[i] = overflow | (&amp;in_flight);
-    `FFLARN(mst_select_q[i], push_mst_select_i, push_en[i], '0, clk_i, rst_ni)
-  end
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is to check if aw_valid is high but aw_ready is low, aw_valid remains stable. This ensures that aw_valid does not deassert prematurely when it’s not acknowledged.
-Assertion 2:
-This assertion is to check ar_valid remains high until acknowledged by ar_ready, maintaining protocol compliance.
-Assertion 3:
-slv_req_i.aw remains stable when aw_valid is asserted but aw_ready is not.
-Assertion 4:
-This assertion is to check slv_aw_select_i remains stable under the same conditions.
-Assertion 5:
-This assertion is to check slv_req_i.ar remains stable when ar_valid is high and ar_ready is low.
-Assertion 6:
-This assertion is to check slv_ar_select_i remains stable in the same scenario.
-Assertion 7:
-This assertion is to check when ar_valid is high, slv_ar_select_i is within the valid range of master ports.
-Assertion 8:
-This assertion is to check when aw_valid is high, slv_aw_select_i should be valid.
-Assertion 9:
-This assertion is to check if w_open is zero, no w_cnt_down operation (decrement) occurs unless balanced by a w_cnt_up. This prevents an underflow in the write counter.</t>
-  </si>
-  <si>
-    <t>module axi_demux_simple #(
-  parameter int unsigned AxiIdWidth     = 32'd0,
-  parameter bit          AtopSupport    = 1'b1,
-  parameter type         axi_req_t      = logic,
-  parameter type         axi_resp_t     = logic,
-  parameter int unsigned NoMstPorts     = 32'd0,
-  parameter int unsigned MaxTrans       = 32'd8,
-  parameter int unsigned AxiLookBits    = 32'd3,
-  parameter bit          UniqueIds      = 1'b0,
-  parameter int unsigned SelectWidth    = (NoMstPorts &gt; 32'd1) ? $clog2(NoMstPorts) : 32'd1,
-  parameter type         select_t       = logic [SelectWidth-1:0]
-) (
-  input  logic                          clk_i,
-  input  logic                          rst_ni,
-  input  logic                          test_i,
-  input  axi_req_t                      slv_req_i,
-  input  select_t                       slv_aw_select_i,
-  input  select_t                       slv_ar_select_i,
-  output axi_resp_t                     slv_resp_o,
-  output axi_req_t    [NoMstPorts-1:0]  mst_reqs_o,
-  input  axi_resp_t   [NoMstPorts-1:0]  mst_resps_i
-);
-  localparam int unsigned IdCounterWidth = cf_math_pkg::idx_width(MaxTrans);
-  typedef logic [IdCounterWidth-1:0] id_cnt_t;
-  if (NoMstPorts == 32'h1) begin : gen_no_demux
-    `AXI_ASSIGN_REQ_STRUCT(mst_reqs_o[0], slv_req_i)
-    `AXI_ASSIGN_RESP_STRUCT(slv_resp_o, mst_resps_i[0])
-  end else begin
-    logic                     lock_aw_valid_d,    lock_aw_valid_q, load_aw_lock;
-    logic                     aw_valid,           aw_ready;
-    select_t                  lookup_aw_select;
-    logic                     aw_select_occupied, aw_id_cnt_full;
-    logic                     atop_inject;
-    select_t                  w_select,           w_select_q;
-    logic                     w_select_valid;
-    id_cnt_t                  w_open;
-    logic                     w_cnt_up,           w_cnt_down;
-    logic    [NoMstPorts-1:0] mst_b_valids,       mst_b_readies;
-    select_t                  lookup_ar_select;
-    logic                     ar_select_occupied, ar_id_cnt_full;
-    logic                     ar_push;
-    logic                     lock_ar_valid_d,    lock_ar_valid_q, load_ar_lock;
-    logic                     ar_valid,           ar_ready;
-    logic    [NoMstPorts-1:0] mst_r_valids, mst_r_readies;
-    always_comb begin
-      slv_resp_o.aw_ready = 1'b0;
-      aw_valid     = 1'b0;
-      lock_aw_valid_d = lock_aw_valid_q;
-      load_aw_lock    = 1'b0;
-      w_cnt_up        = 1'b0;
-      atop_inject     = 1'b0;
-      if (lock_aw_valid_q) begin
-        aw_valid = 1'b1;
-        if (aw_ready) begin
-          slv_resp_o.aw_ready    = 1'b1;
-          lock_aw_valid_d = 1'b0;
-          load_aw_lock    = 1'b1;
-          atop_inject     = slv_req_i.aw.atop[axi_pkg::ATOP_R_RESP] &amp; AtopSupport;
-        end
-      end else begin
-        if (!aw_id_cnt_full &amp;&amp; (w_open != {IdCounterWidth{1'b1}}) &amp;&amp;
-            (!(ar_id_cnt_full &amp;&amp; slv_req_i.aw.atop[axi_pkg::ATOP_R_RESP]) ||
-             !AtopSupport)) begin
-          if (slv_req_i.aw_valid &amp;&amp;
-                ((w_open == '0) || (w_select == slv_aw_select_i)) &amp;&amp;
-                (!aw_select_occupied || (slv_aw_select_i == lookup_aw_select))) begin
-            aw_valid     = 1'b1;
-            w_cnt_up     = 1'b1;
-            if (aw_ready) begin
-              slv_resp_o.aw_ready = 1'b1;
-              atop_inject  = slv_req_i.aw.atop[axi_pkg::ATOP_R_RESP] &amp; AtopSupport;
-            end else begin
-              lock_aw_valid_d = 1'b1;
-              load_aw_lock    = 1'b1;
-            end
-          end
-        end
-      end
-    end
-    `FFLARN(lock_aw_valid_q, lock_aw_valid_d, load_aw_lock, '0, clk_i, rst_ni)
-    if (UniqueIds) begin : gen_unique_ids_aw
-      assign lookup_aw_select = slv_aw_select_i;
-      assign aw_select_occupied = 1'b0;
-      assign aw_id_cnt_full = 1'b0;
-    end else begin : gen_aw_id_counter
-      axi_demux_id_counters #(
-        .AxiIdBits         ( AxiLookBits    ),
-        .CounterWidth      ( IdCounterWidth ),
-        .mst_port_select_t ( select_t       )
-      ) i_aw_id_counter (
-        .clk_i                        ( clk_i                          ),
-        .rst_ni                       ( rst_ni                         ),
-        .lookup_axi_id_i              ( slv_req_i.aw.id[0+:AxiLookBits] ),
-        .lookup_mst_select_o          ( lookup_aw_select               ),
-        .lookup_mst_select_occupied_o ( aw_select_occupied             ),
-        .full_o                       ( aw_id_cnt_full                 ),
-        .inject_axi_id_i              ( '0                             ),
-        .inject_i                     ( 1'b0                           ),
-        .push_axi_id_i                ( slv_req_i.aw.id[0+:AxiLookBits] ),
-        .push_mst_select_i            ( slv_aw_select_i                ),
-        .push_i                       ( w_cnt_up                       ),
-        .pop_axi_id_i                 ( slv_resp_o.b.id[0+:AxiLookBits]  ),
-        .pop_i                        ( slv_resp_o.b_valid &amp; slv_req_i.b_ready      )
-      );
-    end
-    counter #(
-      .WIDTH           ( IdCounterWidth ),
-      .STICKY_OVERFLOW ( 1'b0           )
-    ) i_counter_open_w (
-      .clk_i,
-      .rst_ni,
-      .clear_i    ( 1'b0                  ),
-      .en_i       ( w_cnt_up ^ w_cnt_down ),
-      .load_i     ( 1'b0                  ),
-      .down_i     ( w_cnt_down            ),
-      .d_i        ( '0                    ),
-      .q_o        ( w_open                ),
-      .overflow_o ( /*not used*/          )
-    );
-    `FFLARN(w_select_q, slv_aw_select_i, w_cnt_up, select_t'(0), clk_i, rst_ni)
-    assign w_select       = (|w_open) ? w_select_q : slv_aw_select_i;
-    assign w_select_valid = w_cnt_up | (|w_open);
-    logic [cf_math_pkg::idx_width(NoMstPorts)-1:0] b_idx;
-    rr_arb_tree #(
-      .NumIn    ( NoMstPorts ),
-      .DataType ( logic   ),
-      .AxiVldRdy( 1'b1       ),
-      .LockIn   ( 1'b1       )
-    ) i_b_mux (
-      .clk_i  ( clk_i         ),
-      .rst_ni ( rst_ni        ),
-      .flush_i( 1'b0          ),
-      .rr_i   ( '0            ),
-      .req_i  ( mst_b_valids  ),
-      .gnt_o  ( mst_b_readies ),
-      .data_i ( '0   ),
-      .gnt_i  ( slv_req_i.b_ready  ),
-      .req_o  ( slv_resp_o.b_valid ),
-      .data_o (        ),
-      .idx_o  ( b_idx              )
-    );
-    always_comb begin
-      if (slv_resp_o.b_valid) begin
-        `AXI_SET_B_STRUCT(slv_resp_o.b, mst_resps_i[b_idx].b)
-      end else begin
-        slv_resp_o.b = '0;
-      end
-    end
-    always_comb begin
-      slv_resp_o.ar_ready    = 1'b0;
-      ar_valid        = 1'b0;
-      lock_ar_valid_d = lock_ar_valid_q;
-      load_ar_lock    = 1'b0;
-      ar_push         = 1'b0;
-      if (lock_ar_valid_q) begin
-        ar_valid = 1'b1;
-        if (ar_ready) begin
-          slv_resp_o.ar_ready    = 1'b1;
-          ar_push         = 1'b1;
-          lock_ar_valid_d = 1'b0;
-          load_ar_lock    = 1'b1;
-        end
-      end else begin
-        if (!ar_id_cnt_full) begin
-          if (slv_req_i.ar_valid &amp;&amp; (!ar_select_occupied ||
-             (slv_ar_select_i == lookup_ar_select))) begin
-            ar_valid     = 1'b1;
-            if (ar_ready) begin
-              slv_resp_o.ar_ready = 1'b1;
-              ar_push      = 1'b1;
-            end else begin
-              lock_ar_valid_d = 1'b1;
-              load_ar_lock    = 1'b1;
-            end
-          end
-        end
-      end
-    end
-    `FFLARN(lock_ar_valid_q, lock_ar_valid_d, load_ar_lock, '0, clk_i, rst_ni)
-    if (UniqueIds) begin : gen_unique_ids_ar
-      assign lookup_ar_select = slv_ar_select_i;
-      assign ar_select_occupied = 1'b0;
-      assign ar_id_cnt_full = 1'b0;
-    end else begin : gen_ar_id_counter
-      axi_demux_id_counters #(
-        .AxiIdBits         ( AxiLookBits    ),
-        .CounterWidth      ( IdCounterWidth ),
-        .mst_port_select_t ( select_t       )
-      ) i_ar_id_counter (
-        .clk_i                        ( clk_i                                       ),
-        .rst_ni                       ( rst_ni                                      ),
-        .lookup_axi_id_i              ( slv_req_i.ar.id[0+:AxiLookBits]             ),
-        .lookup_mst_select_o          ( lookup_ar_select                            ),
-        .lookup_mst_select_occupied_o ( ar_select_occupied                          ),
-        .full_o                       ( ar_id_cnt_full                              ),
-        .inject_axi_id_i              ( slv_req_i.aw.id[0+:AxiLookBits]             ),
-        .inject_i                     ( atop_inject                                 ),
-        .push_axi_id_i                ( slv_req_i.ar.id[0+:AxiLookBits]             ),
-        .push_mst_select_i            ( slv_ar_select_i                             ),
-        .push_i                       ( ar_push                                     ),
-        .pop_axi_id_i                 ( slv_resp_o.r.id[0+:AxiLookBits]               ),
-        .pop_i                        ( slv_resp_o.r_valid &amp; slv_req_i.r_ready &amp; slv_resp_o.r.last )
-      );
-    end
-    logic [cf_math_pkg::idx_width(NoMstPorts)-1:0] r_idx;
-    rr_arb_tree #(
-      .NumIn    ( NoMstPorts ),
-      .DataType ( logic   ),
-      .AxiVldRdy( 1'b1       ),
-      .LockIn   ( 1'b1       )
-    ) i_r_mux (
-      .clk_i  ( clk_i         ),
-      .rst_ni ( rst_ni        ),
-      .flush_i( 1'b0          ),
-      .rr_i   ( '0            ),
-      .req_i  ( mst_r_valids  ),
-      .gnt_o  ( mst_r_readies ),
-      .data_i ( '0            ),
-      .gnt_i  ( slv_req_i.r_ready   ),
-      .req_o  ( slv_resp_o.r_valid   ),
-      .data_o (),
-      .idx_o  ( r_idx              )
-    );
-    always_comb begin
-      if (slv_resp_o.r_valid) begin
-        `AXI_SET_R_STRUCT(slv_resp_o.r, mst_resps_i[r_idx].r)
-      end else begin
-        slv_resp_o.r = '0;
-      end
-    end
-    assign ar_ready = ar_valid &amp; mst_resps_i[slv_ar_select_i].ar_ready;
-    assign aw_ready = aw_valid &amp; mst_resps_i[slv_aw_select_i].aw_ready;
-    always_comb begin
-      mst_reqs_o  = '0;
-      slv_resp_o.w_ready = 1'b0;
-      w_cnt_down  = 1'b0;
-      for (int unsigned i = 0; i &lt; NoMstPorts; i++) begin
-        mst_reqs_o[i].aw       = slv_req_i.aw;
-        mst_reqs_o[i].aw_valid = 1'b0;
-        if (aw_valid &amp;&amp; (slv_aw_select_i == i)) begin
-          mst_reqs_o[i].aw_valid = 1'b1;
-        end
-        mst_reqs_o[i].w       = slv_req_i.w;
-        mst_reqs_o[i].w_valid = 1'b0;
-        if (w_select_valid &amp;&amp; (w_select == i)) begin
-          mst_reqs_o[i].w_valid = slv_req_i.w_valid;
-          slv_resp_o.w_ready           = mst_resps_i[i].w_ready;
-          w_cnt_down            = slv_req_i.w_valid &amp; mst_resps_i[i].w_ready &amp; slv_req_i.w.last;
-        end
-        mst_reqs_o[i].b_ready = mst_b_readies[i];
-        mst_reqs_o[i].ar       = slv_req_i.ar;
-        mst_reqs_o[i].ar_valid = 1'b0;
-        if (ar_valid &amp;&amp; (slv_ar_select_i == i)) begin
-          mst_reqs_o[i].ar_valid = 1'b1;
-        end
-        mst_reqs_o[i].r_ready = mst_r_readies[i];
-      end
-    end
-    for (genvar i = 0; i &lt; NoMstPorts; i++) begin : gen_b_channels
-      assign mst_b_valids[i]       = mst_resps_i[i].b_valid;
-      assign mst_r_valids[i]       = mst_resps_i[i].r_valid;
-    end
-  end
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion is to check the response type specified by the Resp parameter is one of the two valid error responses: RESP_DECERR (decode error) or RESP_SLVERR (slave error).
-Assertion 2:
-This assertion is to check that if ATOPs (atomic operation support) is disabled, all ATOP-related transactions received on slv_req_i.aw.atop are zero, meaning no ATOP transactions are allowed.</t>
-  </si>
-  <si>
-    <t>module axi_err_slv #(
-  parameter int unsigned          AxiIdWidth  = 0, 
-  parameter type                  axi_req_t   = logic,
-  parameter type                  axi_resp_t  = logic,
-  parameter axi_pkg::resp_t       Resp        = axi_pkg::RESP_DECERR,
-  parameter int unsigned          RespWidth   = 32'd64,       
-  parameter logic [RespWidth-1:0] RespData    = 64'hCA11AB1EBADCAB1E,
-  parameter bit                   ATOPs       = 1'b1,     
-  parameter int unsigned          MaxTrans    = 1 
-) (
-  input  logic      clk_i, 
-  input  logic      rst_ni,
-  input  logic      test_i,
-  input  axi_req_t  slv_req_i,
-  output axi_resp_t slv_resp_o
-);
-  typedef logic [AxiIdWidth-1:0] id_t;
-  typedef struct packed {
-    id_t           id;
-    axi_pkg::len_t len;
-  } r_data_t;
-  axi_req_t   err_req;
-  axi_resp_t  err_resp;
-  if (ATOPs) begin
-    axi_atop_filter #(
-      .AxiIdWidth       ( AxiIdWidth  ),
-      .AxiMaxWriteTxns  ( MaxTrans    ),
-      .axi_req_t        ( axi_req_t   ),
-      .axi_resp_t       ( axi_resp_t  )
-    ) i_atop_filter (
-      .clk_i,
-      .rst_ni,
-      .slv_req_i  ( slv_req_i   ),
-      .slv_resp_o ( slv_resp_o  ),
-      .mst_req_o  ( err_req     ),
-      .mst_resp_i ( err_resp    )
-    );
-  end else begin
-    assign err_req    = slv_req_i;
-    assign slv_resp_o = err_resp;
-  end
-  logic    w_fifo_full, w_fifo_empty;
-  logic    w_fifo_push, w_fifo_pop;
-  id_t     w_fifo_data;
-  logic    b_fifo_full, b_fifo_empty;
-  logic    b_fifo_push, b_fifo_pop;
-  id_t     b_fifo_data;
-  r_data_t r_fifo_inp;
-  logic    r_fifo_full, r_fifo_empty;
-  logic    r_fifo_push, r_fifo_pop;
-  r_data_t r_fifo_data;
-  logic    r_cnt_clear, r_cnt_en, r_cnt_load;
-  axi_pkg::len_t r_current_beat;
-  logic    r_busy_d, r_busy_q, r_busy_load;
-  assign w_fifo_push        = err_req.aw_valid &amp; ~w_fifo_full;
-  assign err_resp.aw_ready  = ~w_fifo_full;
-  fifo_v3 #(
-    .FALL_THROUGH ( 1'b1      ),
-    .DEPTH        ( MaxTrans  ),
-    .dtype        ( id_t      )
-  ) i_w_fifo (
-    .clk_i      ( clk_i             ),
-    .rst_ni     ( rst_ni            ),
-    .flush_i    ( 1'b0              ),
-    .testmode_i ( test_i            ),
-    .full_o     ( w_fifo_full       ),
-    .empty_o    ( w_fifo_empty      ),
-    .usage_o    (                   ),
-    .data_i     ( err_req.aw.id     ),
-    .push_i     ( w_fifo_push       ),
-    .data_o     ( w_fifo_data       ),
-    .pop_i      ( w_fifo_pop        )
-  );
-  always_comb begin : proc_w_channel
-    err_resp.w_ready  = 1'b0;
-    w_fifo_pop        = 1'b0;
-    b_fifo_push       = 1'b0;
-    if (!w_fifo_empty &amp;&amp; !b_fifo_full) begin
-      err_resp.w_ready = 1'b1;
-      if (err_req.w_valid &amp;&amp; err_req.w.last) begin
-        w_fifo_pop    = 1'b1;
-        b_fifo_push   = 1'b1;
-      end
-    end
-  end
-  fifo_v3 #(
-    .FALL_THROUGH ( 1'b0         ),
-    .DEPTH        ( unsigned'(2) ), 
-    .dtype        ( id_t         )
-  ) i_b_fifo (
-    .clk_i      ( clk_i        ),
-    .rst_ni     ( rst_ni       ),
-    .flush_i    ( 1'b0         ),
-    .testmode_i ( test_i       ),
-    .full_o     ( b_fifo_full  ),
-    .empty_o    ( b_fifo_empty ),
-    .usage_o    (              ),
-    .data_i     ( w_fifo_data  ),
-    .push_i     ( b_fifo_push  ),
-    .data_o     ( b_fifo_data  ),
-    .pop_i      ( b_fifo_pop   )
-  );
-  always_comb begin : proc_b_channel
-    b_fifo_pop        = 1'b0;
-    err_resp.b        = '0;
-    err_resp.b.id     = b_fifo_data;
-    err_resp.b.resp   = Resp;
-    err_resp.b_valid  = 1'b0;
-    if (!b_fifo_empty) begin
-      err_resp.b_valid = 1'b1;
-      b_fifo_pop = err_req.b_ready;
-    end
-  end
-  assign r_fifo_push        = err_req.ar_valid &amp; ~r_fifo_full;
-  assign err_resp.ar_ready  = ~r_fifo_full;
-  assign r_fifo_inp.id  = err_req.ar.id;
-  assign r_fifo_inp.len = err_req.ar.len;
-  fifo_v3 #(
-    .FALL_THROUGH ( 1'b0      ),
-    .DEPTH        ( MaxTrans  ),
-    .dtype        ( r_data_t  )
-  ) i_r_fifo (
-    .clk_i     ( clk_i        ),
-    .rst_ni    ( rst_ni       ),
-    .flush_i   ( 1'b0         ),
-    .testmode_i( test_i       ),
-    .full_o    ( r_fifo_full  ),
-    .empty_o   ( r_fifo_empty ),
-    .usage_o   (              ),
-    .data_i    ( r_fifo_inp   ),
-    .push_i    ( r_fifo_push  ),
-    .data_o    ( r_fifo_data  ),
-    .pop_i     ( r_fifo_pop   )
-  );
-  always_comb begin : proc_r_channel
-    r_busy_d    = r_busy_q;
-    r_busy_load = 1'b0;
-    r_fifo_pop  = 1'b0;
-    r_cnt_clear = 1'b0;
-    r_cnt_en    = 1'b0;
-    r_cnt_load  = 1'b0;
-    err_resp.r        = '0;
-    err_resp.r.id     = r_fifo_data.id;
-    err_resp.r.data   = RespData;
-    err_resp.r.resp   = Resp;
-    err_resp.r_valid  = 1'b0;
-    if (r_busy_q) begin
-      err_resp.r_valid = 1'b1;
-      err_resp.r.last = (r_current_beat == '0);
-      if (err_req.r_ready) begin
-        r_cnt_en = 1'b1;
-        if (r_current_beat == '0) begin
-          r_busy_d    = 1'b0;
-          r_busy_load = 1'b1;
-          r_cnt_clear = 1'b1;
-          r_fifo_pop  = 1'b1;
-        end
-      end
-    end else begin
-      if (!r_fifo_empty) begin
-        r_busy_d    = 1'b1;
-        r_busy_load = 1'b1;
-        r_cnt_load  = 1'b1;
-      end
-    end
-  end
-  always_ff @(posedge clk_i, negedge rst_ni) begin
-    if (!rst_ni) begin
-      r_busy_q &lt;= '0;
-    end else if (r_busy_load) begin
-      r_busy_q &lt;= r_busy_d;
-    end
-  end
-  counter #(
-    .WIDTH     ($bits(axi_pkg::len_t))
-  ) i_r_counter (
-    .clk_i     ( clk_i           ),
-    .rst_ni    ( rst_ni          ),
-    .clear_i   ( r_cnt_clear     ),
-    .en_i      ( r_cnt_en        ),
-    .load_i    ( r_cnt_load      ),
-    .down_i    ( 1'b1            ),
-    .d_i       ( r_fifo_data.len ),
-    .q_o       ( r_current_beat  ),
-    .overflow_o(                 )
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1: 
-This assertion is to check that the depth parameter, which specifies the number of FIFO slots, is a non-negative value.
-</t>
-  </si>
-  <si>
-    <t>module axi_fifo #(
-    parameter int unsigned Depth       = 32'd1,
-    parameter bit          FallThrough = 1'b0,
-    // AXI channel structs
-    parameter type         aw_chan_t   = logic,
-    parameter type         w_chan_t    = logic,
-    parameter type         b_chan_t    = logic,
-    parameter type         ar_chan_t   = logic,
-    parameter type         r_chan_t    = logic,
-    // AXI request &amp; response structs
-    parameter type         axi_req_t   = logic,
-    parameter type         axi_resp_t  = logic
-) (
-    input  logic      clk_i, 
-    input  logic      rst_ni,
-    input  logic      test_i,
-    input  axi_req_t  slv_req_i,
-    output axi_resp_t slv_resp_o,
-    output axi_req_t  mst_req_o,
-    input  axi_resp_t mst_resp_i
-);
-  if (Depth == '0) begin : gen_no_fifo
-    assign mst_req_o  = slv_req_i;
-    assign slv_resp_o = mst_resp_i;
-  end else begin : gen_axi_fifo
-    logic aw_fifo_empty, ar_fifo_empty, w_fifo_empty, r_fifo_empty, b_fifo_empty;
-    logic aw_fifo_full, ar_fifo_full, w_fifo_full, r_fifo_full, b_fifo_full;
-    assign mst_req_o.aw_valid  = ~aw_fifo_empty;
-    assign mst_req_o.ar_valid  = ~ar_fifo_empty;
-    assign mst_req_o.w_valid   = ~w_fifo_empty;
-    assign slv_resp_o.r_valid  = ~r_fifo_empty;
-    assign slv_resp_o.b_valid  = ~b_fifo_empty;
-    assign slv_resp_o.aw_ready = ~aw_fifo_full;
-    assign slv_resp_o.ar_ready = ~ar_fifo_full;
-    assign slv_resp_o.w_ready  = ~w_fifo_full;
-    assign mst_req_o.r_ready   = ~r_fifo_full;
-    assign mst_req_o.b_ready   = ~b_fifo_full;
-    fifo_v3 #(
-        .dtype(aw_chan_t),
-        .DEPTH(Depth),
-        .FALL_THROUGH(FallThrough)
-    ) i_aw_fifo (
-        .clk_i,
-        .rst_ni,
-        .flush_i   (1'b0),
-        .testmode_i(test_i),
-        .full_o    (aw_fifo_full),
-        .empty_o   (aw_fifo_empty),
-        .usage_o   (),
-        .data_i    (slv_req_i.aw),
-        .push_i    (slv_req_i.aw_valid &amp;&amp; slv_resp_o.aw_ready),
-        .data_o    (mst_req_o.aw),
-        .pop_i     (mst_req_o.aw_valid &amp;&amp; mst_resp_i.aw_ready)
-    );
-    fifo_v3 #(
-        .dtype(ar_chan_t),
-        .DEPTH(Depth),
-        .FALL_THROUGH(FallThrough)
-    ) i_ar_fifo (
-        .clk_i,
-        .rst_ni,
-        .flush_i   (1'b0),
-        .testmode_i(test_i),
-        .full_o    (ar_fifo_full),
-        .empty_o   (ar_fifo_empty),
-        .usage_o   (),
-        .data_i    (slv_req_i.ar),
-        .push_i    (slv_req_i.ar_valid &amp;&amp; slv_resp_o.ar_ready),
-        .data_o    (mst_req_o.ar),
-        .pop_i     (mst_req_o.ar_valid &amp;&amp; mst_resp_i.ar_ready)
-    );
-    fifo_v3 #(
-        .dtype(w_chan_t),
-        .DEPTH(Depth),
-        .FALL_THROUGH(FallThrough)
-    ) i_w_fifo (
-        .clk_i,
-        .rst_ni,
-        .flush_i   (1'b0),
-        .testmode_i(test_i),
-        .full_o    (w_fifo_full),
-        .empty_o   (w_fifo_empty),
-        .usage_o   (),
-        .data_i    (slv_req_i.w),
-        .push_i    (slv_req_i.w_valid &amp;&amp; slv_resp_o.w_ready),
-        .data_o    (mst_req_o.w),
-        .pop_i     (mst_req_o.w_valid &amp;&amp; mst_resp_i.w_ready)
-    );
-    fifo_v3 #(
-        .dtype(r_chan_t),
-        .DEPTH(Depth),
-        .FALL_THROUGH(FallThrough)
-    ) i_r_fifo (
-        .clk_i,
-        .rst_ni,
-        .flush_i   (1'b0),
-        .testmode_i(test_i),
-        .full_o    (r_fifo_full),
-        .empty_o   (r_fifo_empty),
-        .usage_o   (),
-        .data_i    (mst_resp_i.r),
-        .push_i    (mst_resp_i.r_valid &amp;&amp; mst_req_o.r_ready),
-        .data_o    (slv_resp_o.r),
-        .pop_i     (slv_resp_o.r_valid &amp;&amp; slv_req_i.r_ready)
-    );
-    fifo_v3 #(
-        .dtype(b_chan_t),
-        .DEPTH(Depth),
-        .FALL_THROUGH(FallThrough)
-    ) i_b_fifo (
-        .clk_i,
-        .rst_ni,
-        .flush_i   (1'b0),
-        .testmode_i(test_i),
-        .full_o    (b_fifo_full),
-        .empty_o   (b_fifo_empty),
-        .usage_o   (),
-        .data_i    (mst_resp_i.b),
-        .push_i    (mst_resp_i.b_valid &amp;&amp; mst_req_o.b_ready),
-        .data_o    (slv_resp_o.b),
-        .pop_i     (slv_resp_o.b_valid &amp;&amp; slv_req_i.b_ready)
-    );
-  end
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1-4:
-These assertions check that the ADDR_WIDTH, DATA_WIDTH, ID_WIDTH, and USER_WIDTH parameters are each greater than zero, ensuring they are properly defined.
-Assertion 5-8:
-These assertions ensure that the slave interface (slv) has the same width definitions as specified by the module parameters.
-Assertion 9-12:
-These assertions check that the master interface (mst) definitions match the module’s specified ADDR_WIDTH, DATA_WIDTH, ID_WIDTH, and USER_WIDTH parameters.
-</t>
-  </si>
-  <si>
-    <t>module axi_fifo_intf #(
-    parameter int unsigned ADDR_WIDTH = 0,  // The address width.
-    parameter int unsigned DATA_WIDTH = 0,  // The data width.
-    parameter int unsigned ID_WIDTH = 0,  // The ID width.
-    parameter int unsigned USER_WIDTH = 0,  // The user data width.
-    parameter int unsigned DEPTH = 0,  // The number of FiFo slots.
-    parameter int unsigned FALL_THROUGH = 0  // FiFo in fall-through mode
-) (
-    input logic    clk_i,
-    input logic    rst_ni,
-    input logic    test_i,
-    AXI_BUS.Slave  slv,
-    AXI_BUS.Master mst
-);
-  typedef logic [ID_WIDTH-1:0] id_t;
-  typedef logic [ADDR_WIDTH-1:0] addr_t;
-  typedef logic [DATA_WIDTH-1:0] data_t;
-  typedef logic [DATA_WIDTH/8-1:0] strb_t;
-  typedef logic [USER_WIDTH-1:0] user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(aw_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_W_CHAN_T(w_chan_t, data_t, strb_t, user_t)
-  `AXI_TYPEDEF_B_CHAN_T(b_chan_t, id_t, user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(ar_chan_t, addr_t, id_t, user_t)
-  `AXI_TYPEDEF_R_CHAN_T(r_chan_t, data_t, id_t, user_t)
-  `AXI_TYPEDEF_REQ_T(axi_req_t, aw_chan_t, w_chan_t, ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(axi_resp_t, b_chan_t, r_chan_t)
-  axi_req_t slv_req, mst_req;
-  axi_resp_t slv_resp, mst_resp;
-  `AXI_ASSIGN_TO_REQ(slv_req, slv)
-  `AXI_ASSIGN_FROM_RESP(slv, slv_resp)
-  `AXI_ASSIGN_FROM_REQ(mst, mst_req)
-  `AXI_ASSIGN_TO_RESP(mst_resp, mst)
-  axi_fifo #(
-      .Depth      (DEPTH),
-      .FallThrough(FALL_THROUGH),
-      .aw_chan_t  (aw_chan_t),
-      .w_chan_t   (w_chan_t),
-      .b_chan_t   (b_chan_t),
-      .ar_chan_t  (ar_chan_t),
-      .r_chan_t   (r_chan_t),
-      .axi_req_t  (axi_req_t),
-      .axi_resp_t (axi_resp_t)
-  ) i_axi_fifo (
-      .clk_i,
-      .rst_ni,
-      .test_i,
-      .slv_req_i (slv_req),
-      .slv_resp_o(slv_resp),
-      .mst_req_o (mst_req),
-      .mst_resp_i(mst_resp)
-  );
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-NoBus &gt; 0: Ensures there is at least one bus to process (NoBus should be greater than zero). If not, it stops the simulation with an error, as the module needs at least one input bus.
-Assertion 2:
-PreIdWidth Calculation: Checks that PreIdWidth (the number of bits added as a prefix to the ID) is correctly calculated as the difference between the master port's ID width and the slave port's ID width. If not, $fatal stops the simulation. This calculation is crucial to ensure proper ID prepending.
-Assertion 3:
-Master ID Width Validation: Ensures the master port’s ID width is greater than the slave port’s ID width, confirming there’s enough space to prepend the ID. This prevents configuration errors that could lead to truncated IDs.
-Assertion 4-8:
-Ensures the lower bits of mst_aw_chans_o[0].id match slv_aw_chans_i[0].id. This verifies that only the pre_id_i bits were prepended, leaving the original slave ID intact in the lower bits.
-Assertion 9:
-Ensures the lower bits of the mst_b_chans_i[0].id match slv_b_chans_o[0].id, verifying that the pre_id_i bits were correctly removed in the B channel.
-Assertion 10:
-Similar to the AW channel, this assertion ensures that only pre_id_i was prepended, leaving the original slave ID bits intact.
-Assertion 11:
-Confirms that the lower bits of mst_r_chans_i[0].id match slv_r_chans_o[0].id, indicating successful removal of the prepended ID.
-</t>
-  </si>
-  <si>
-    <t>module axi_id_prepend #(
-  parameter int unsigned NoBus             = 1,     // Can take multiple axi busses
-  parameter int unsigned AxiIdWidthSlvPort = 4,     // AXI ID Width of the Slave Ports
-  parameter int unsigned AxiIdWidthMstPort = 6,     // AXI ID Width of the Master Ports
-  parameter type         slv_aw_chan_t     = logic, // AW Channel Type for slv port
-  parameter type         slv_w_chan_t      = logic, //  W Channel Type for slv port
-  parameter type         slv_b_chan_t      = logic, //  B Channel Type for slv port
-  parameter type         slv_ar_chan_t     = logic, // AR Channel Type for slv port
-  parameter type         slv_r_chan_t      = logic, //  R Channel Type for slv port
-  parameter type         mst_aw_chan_t     = logic, // AW Channel Type for mst port
-  parameter type         mst_w_chan_t      = logic, //  W Channel Type for mst port
-  parameter type         mst_b_chan_t      = logic, //  B Channel Type for mst port
-  parameter type         mst_ar_chan_t     = logic, // AR Channel Type for mst port
-  parameter type         mst_r_chan_t      = logic, //  R Channel Type for mst port
-  // DEPENDENT PARAMETER DO NOT OVERWRITE!
-  parameter int unsigned PreIdWidth        = AxiIdWidthMstPort - AxiIdWidthSlvPort
-) (
-  input  logic [PreIdWidth-1:0] pre_id_i,
-  input  slv_aw_chan_t [NoBus-1:0] slv_aw_chans_i,
-  input  logic         [NoBus-1:0] slv_aw_valids_i,
-  output logic         [NoBus-1:0] slv_aw_readies_o,
-  input  slv_w_chan_t  [NoBus-1:0] slv_w_chans_i,
-  input  logic         [NoBus-1:0] slv_w_valids_i,
-  output logic         [NoBus-1:0] slv_w_readies_o,
-  output slv_b_chan_t  [NoBus-1:0] slv_b_chans_o,
-  output logic         [NoBus-1:0] slv_b_valids_o,
-  input  logic         [NoBus-1:0] slv_b_readies_i,
-  input  slv_ar_chan_t [NoBus-1:0] slv_ar_chans_i,
-  input  logic         [NoBus-1:0] slv_ar_valids_i,
-  output logic         [NoBus-1:0] slv_ar_readies_o,
-  output slv_r_chan_t  [NoBus-1:0] slv_r_chans_o,
-  output logic         [NoBus-1:0] slv_r_valids_o,
-  input  logic         [NoBus-1:0] slv_r_readies_i,
-  output mst_aw_chan_t [NoBus-1:0] mst_aw_chans_o,
-  output logic         [NoBus-1:0] mst_aw_valids_o,
-  input  logic         [NoBus-1:0] mst_aw_readies_i,
-  output mst_w_chan_t  [NoBus-1:0] mst_w_chans_o,
-  output logic         [NoBus-1:0] mst_w_valids_o,
-  input  logic         [NoBus-1:0] mst_w_readies_i,
-  input  mst_b_chan_t  [NoBus-1:0] mst_b_chans_i,
-  input  logic         [NoBus-1:0] mst_b_valids_i,
-  output logic         [NoBus-1:0] mst_b_readies_o,
-  output mst_ar_chan_t [NoBus-1:0] mst_ar_chans_o,
-  output logic         [NoBus-1:0] mst_ar_valids_o,
-  input  logic         [NoBus-1:0] mst_ar_readies_i,
-  input  mst_r_chan_t  [NoBus-1:0] mst_r_chans_i,
-  input  logic         [NoBus-1:0] mst_r_valids_i,
-  output logic         [NoBus-1:0] mst_r_readies_o
-);
-  for (genvar i = 0; i &lt; NoBus; i++) begin : gen_id_prepend
-    if (PreIdWidth == 0) begin : gen_no_prepend
-      assign mst_aw_chans_o[i] = slv_aw_chans_i[i];
-      assign mst_ar_chans_o[i] = slv_ar_chans_i[i];
-    end else begin : gen_prepend
-      always_comb begin
-        mst_aw_chans_o[i] = slv_aw_chans_i[i];
-        mst_ar_chans_o[i] = slv_ar_chans_i[i];
-        mst_aw_chans_o[i].id = {pre_id_i, slv_aw_chans_i[i].id[AxiIdWidthSlvPort-1:0]};
-        mst_ar_chans_o[i].id = {pre_id_i, slv_ar_chans_i[i].id[AxiIdWidthSlvPort-1:0]};
-      end
-    end
-    assign slv_b_chans_o[i] = mst_b_chans_i[i];
-    assign slv_r_chans_o[i] = mst_r_chans_i[i];
-  end
-  assign mst_w_chans_o    = slv_w_chans_i;
-  assign mst_aw_valids_o  = slv_aw_valids_i;
-  assign slv_aw_readies_o = mst_aw_readies_i;
-  assign mst_w_valids_o   = slv_w_valids_i;
-  assign slv_w_readies_o  = mst_w_readies_i;
-  assign slv_b_valids_o   = mst_b_valids_i;
-  assign mst_b_readies_o  = slv_b_readies_i;
-  assign mst_ar_valids_o  = slv_ar_valids_i;
-  assign slv_ar_readies_o = mst_ar_readies_i;
-  assign slv_r_valids_o   = mst_r_valids_i;
-  assign mst_r_readies_o  = slv_r_readies_i;
-endmodule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assertion 1:
-AxiSlvPortIdWidth &gt; 0: Ensures the slave port ID width is valid (non-zero).
-Assertion 2:
-AxiMstPortIdWidth &gt;= IdxWidth: Ensures the master port ID width is sufficient to represent all unique IDs from the slave port.
-Assertion 3:
-AxiSlvPortMaxUniqIds &gt; 0: Ensures there is at least one unique ID allowed in flight at the slave port.
-Assertion 4:
-AxiSlvPortMaxUniqIds &lt;= 2**AxiSlvPortIdWidth: Ensures the number of unique IDs does not exceed what can be represented by the slave port ID width.
-Assertion 5:
-AxiMaxTxnsPerId &gt; 0: Confirms that each unique ID can support at least one transaction in flight.
-Assertion 6-10:
-These assertions ensure that address (addr), data (data), and user (user) fields are of equal width on the master and slave ports for the AW, W, and AR channels. Inconsistent widths would cause protocol issues and data corruption.
-Assertion 11-13:
-Slave Port ID Width: Checks that aw.id, b.id, ar.id, and r.id fields on the slave port match AxiSlvPortIdWidth.
-Assertion 14-16:
-Master Port ID Width: Verifies that these ID fields on the master port match AxiMstPortIdWidth.
-Assertion 17-20:
-Write Address (AW) and Read Address (AR) Channels: Confirms that when the slave aw or ar handshake is valid and ready, the corresponding master handshake signals are also valid and ready.
-Write Response (B) and Read Response (R) Channels: Ensures that a valid b or r response on the master port corresponds with a valid and ready response on the slave port.
-Assertion 21:
-last Signal: Confirms that the last flag for R responses (indicating the end of a burst) is consistent between master and slave ports. Any mismatch could indicate an incomplete or out-of-order transaction.
-Assertion 22-23:
-AR Channel ID Stability: Ensures that ar.id remains stable when ar_valid is asserted but ar_ready is not yet acknowledged.
-AW Channel ID Stability: Verifies that aw.id does not change during an unacknowledged aw transaction.
-</t>
-  </si>
-  <si>
-    <t>module axi_id_remap #(
-  parameter int unsigned AxiSlvPortIdWidth = 32'd0,
-  parameter int unsigned AxiSlvPortMaxUniqIds = 32'd0,
-  parameter int unsigned AxiMaxTxnsPerId = 32'd0,
-  parameter int unsigned AxiMstPortIdWidth = 32'd0,
-  parameter type slv_req_t = logic,
-  parameter type slv_resp_t = logic,
-  parameter type mst_req_t = logic,
-  parameter type mst_resp_t = logic
-) (
-  input  logic      clk_i,
-  input  logic      rst_ni,
-  input  slv_req_t  slv_req_i,
-  output slv_resp_t slv_resp_o,
-  output mst_req_t  mst_req_o,
-  input  mst_resp_t mst_resp_i
-);
-  assign mst_req_o.aw.addr   = slv_req_i.aw.addr;
-  assign mst_req_o.aw.len    = slv_req_i.aw.len;
-  assign mst_req_o.aw.size   = slv_req_i.aw.size;
-  assign mst_req_o.aw.burst  = slv_req_i.aw.burst;
-  assign mst_req_o.aw.lock   = slv_req_i.aw.lock;
-  assign mst_req_o.aw.cache  = slv_req_i.aw.cache;
-  assign mst_req_o.aw.prot   = slv_req_i.aw.prot;
-  assign mst_req_o.aw.qos    = slv_req_i.aw.qos;
-  assign mst_req_o.aw.region = slv_req_i.aw.region;
-  assign mst_req_o.aw.atop   = slv_req_i.aw.atop;
-  assign mst_req_o.aw.user   = slv_req_i.aw.user;
-  assign mst_req_o.w         = slv_req_i.w;
-  assign mst_req_o.w_valid   = slv_req_i.w_valid;
-  assign slv_resp_o.w_ready  = mst_resp_i.w_ready;
-  assign slv_resp_o.b.resp   = mst_resp_i.b.resp;
-  assign slv_resp_o.b.user   = mst_resp_i.b.user;
-  assign slv_resp_o.b_valid  = mst_resp_i.b_valid;
-  assign mst_req_o.b_ready   = slv_req_i.b_ready;
-  assign mst_req_o.ar.addr   = slv_req_i.ar.addr;
-  assign mst_req_o.ar.len    = slv_req_i.ar.len;
-  assign mst_req_o.ar.size   = slv_req_i.ar.size;
-  assign mst_req_o.ar.burst  = slv_req_i.ar.burst;
-  assign mst_req_o.ar.lock   = slv_req_i.ar.lock;
-  assign mst_req_o.ar.cache  = slv_req_i.ar.cache;
-  assign mst_req_o.ar.prot   = slv_req_i.ar.prot;
-  assign mst_req_o.ar.qos    = slv_req_i.ar.qos;
-  assign mst_req_o.ar.region = slv_req_i.ar.region;
-  assign mst_req_o.ar.user   = slv_req_i.ar.user;
-  assign slv_resp_o.r.data   = mst_resp_i.r.data;
-  assign slv_resp_o.r.resp   = mst_resp_i.r.resp;
-  assign slv_resp_o.r.last   = mst_resp_i.r.last;
-  assign slv_resp_o.r.user   = mst_resp_i.r.user;
-  assign slv_resp_o.r_valid  = mst_resp_i.r_valid;
-  assign mst_req_o.r_ready   = slv_req_i.r_ready;
-  localparam int unsigned IdxWidth = cf_math_pkg::idx_width(AxiSlvPortMaxUniqIds);
-  typedef logic [AxiSlvPortMaxUniqIds-1:0]  field_t;
-  typedef logic [AxiSlvPortIdWidth-1:0]     id_inp_t;
-  typedef logic [IdxWidth-1:0]              idx_t;
-  field_t   wr_free,          rd_free,          both_free;
-  id_inp_t                    rd_push_inp_id;
-  idx_t     wr_free_oup_id,   rd_free_oup_id,   both_free_oup_id,
-            wr_push_oup_id,   rd_push_oup_id,
-            wr_exists_id,     rd_exists_id;
-  logic     wr_exists,        rd_exists,
-            wr_exists_full,   rd_exists_full,
-            wr_full,          rd_full,
-            wr_push,          rd_push;
-  axi_id_remap_table #(
-    .InpIdWidth     ( AxiSlvPortIdWidth     ),
-    .MaxUniqInpIds  ( AxiSlvPortMaxUniqIds  ),
-    .MaxTxnsPerId   ( AxiMaxTxnsPerId       )
-  ) i_wr_table (
-    .clk_i,
-    .rst_ni,
-    .free_o          ( wr_free                                 ),
-    .free_oup_id_o   ( wr_free_oup_id                          ),
-    .full_o          ( wr_full                                 ),
-    .push_i          ( wr_push                                 ),
-    .push_inp_id_i   ( slv_req_i.aw.id                         ),
-    .push_oup_id_i   ( wr_push_oup_id                          ),
-    .exists_inp_id_i ( slv_req_i.aw.id                         ),
-    .exists_o        ( wr_exists                               ),
-    .exists_oup_id_o ( wr_exists_id                            ),
-    .exists_full_o   ( wr_exists_full                          ),
-    .pop_i           ( slv_resp_o.b_valid &amp;&amp; slv_req_i.b_ready ),
-    .pop_oup_id_i    ( mst_resp_i.b.id[IdxWidth-1:0]           ),
-    .pop_inp_id_o    ( slv_resp_o.b.id                         )
-  );
-  axi_id_remap_table #(
-    .InpIdWidth     ( AxiSlvPortIdWidth     ),
-    .MaxUniqInpIds  ( AxiSlvPortMaxUniqIds  ),
-    .MaxTxnsPerId   ( AxiMaxTxnsPerId       )
-  ) i_rd_table (
-    .clk_i,
-    .rst_ni,
-    .free_o           ( rd_free                                                      ),
-    .free_oup_id_o    ( rd_free_oup_id                                               ),
-    .full_o           ( rd_full                                                      ),
-    .push_i           ( rd_push                                                      ),
-    .push_inp_id_i    ( rd_push_inp_id                                               ),
-    .push_oup_id_i    ( rd_push_oup_id                                               ),
-    .exists_inp_id_i  ( slv_req_i.ar.id                                              ),
-    .exists_o         ( rd_exists                                                    ),
-    .exists_oup_id_o  ( rd_exists_id                                                 ),
-    .exists_full_o    ( rd_exists_full                                               ),
-    .pop_i            ( slv_resp_o.r_valid &amp;&amp; slv_req_i.r_ready &amp;&amp; slv_resp_o.r.last ),
-    .pop_oup_id_i     ( mst_resp_i.r.id[IdxWidth-1:0]                                ),
-    .pop_inp_id_o     ( slv_resp_o.r.id                                              )
-  );
-  assign both_free = wr_free &amp; rd_free;
-  lzc #(
-    .WIDTH  ( AxiSlvPortMaxUniqIds  ),
-    .MODE   ( 1'b0                  )
-  ) i_lzc (
-    .in_i     ( both_free        ),
-    .cnt_o    ( both_free_oup_id ),
-    .empty_o  ( /* unused */     )
-  );
-  localparam ZeroWidth = AxiMstPortIdWidth - IdxWidth;
-  assign mst_req_o.ar.id = {{ZeroWidth{1'b0}}, rd_push_oup_id};
-  assign mst_req_o.aw.id = {{ZeroWidth{1'b0}}, wr_push_oup_id};
-  enum logic [1:0] {Ready, HoldAR, HoldAW, HoldAx} state_d, state_q;
-  idx_t ar_id_d, ar_id_q,
-        aw_id_d, aw_id_q;
-  logic ar_prio_d, ar_prio_q;
-  always_comb begin
-    mst_req_o.aw_valid  = 1'b0;
-    slv_resp_o.aw_ready = 1'b0;
-    wr_push             = 1'b0;
-    wr_push_oup_id      =   '0;
-    mst_req_o.ar_valid  = 1'b0;
-    slv_resp_o.ar_ready = 1'b0;
-    rd_push             = 1'b0;
-    rd_push_inp_id      =   '0;
-    rd_push_oup_id      =   '0;
-    ar_id_d             = ar_id_q;
-    aw_id_d             = aw_id_q;
-    ar_prio_d           = ar_prio_q;
-    state_d             = state_q;
-    unique case (state_q)
-      Ready: begin
-        if (slv_req_i.ar_valid) begin
-          if ((rd_exists &amp;&amp; !rd_exists_full) || (!rd_exists &amp;&amp; !rd_full)) begin
-            rd_push_inp_id     = slv_req_i.ar.id;
-            rd_push_oup_id     = rd_exists ? rd_exists_id : rd_free_oup_id;
-            mst_req_o.ar_valid = 1'b1;
-            rd_push            = 1'b1;
-          end
-        end
-        if (slv_req_i.aw_valid) begin
-          if (!slv_req_i.aw.atop[axi_pkg::ATOP_R_RESP]) begin
-            if ((wr_exists &amp;&amp; !wr_exists_full) || (!wr_exists &amp;&amp; !wr_full)) begin
-              wr_push_oup_id     = wr_exists ? wr_exists_id : wr_free_oup_id;
-              mst_req_o.aw_valid = 1'b1;
-              wr_push            = 1'b1;
-            end
-          end else if (!(ar_prio_q &amp;&amp; mst_req_o.ar_valid)) begin
-            mst_req_o.ar_valid  = 1'b0;
-            slv_resp_o.ar_ready = 1'b0;
-            rd_push             = 1'b0;
-            if ((|both_free)) begin
-              wr_push_oup_id = both_free_oup_id;
-              rd_push_inp_id = slv_req_i.aw.id;
-              rd_push_oup_id = both_free_oup_id;
-              mst_req_o.aw_valid = 1'b1;
-              rd_push            = 1'b1;
-              wr_push            = 1'b1;
-              ar_prio_d = 1'b1;
-            end
-          end
-        end
-        if (mst_req_o.ar_valid) begin
-          slv_resp_o.ar_ready = mst_resp_i.ar_ready;
-          if (!mst_resp_i.ar_ready) begin
-            ar_id_d = rd_push_oup_id;
-          end
-        end
-        if (mst_req_o.aw_valid) begin
-          slv_resp_o.aw_ready = mst_resp_i.aw_ready;
-          if (!mst_resp_i.aw_ready) begin
-            aw_id_d = wr_push_oup_id;
-          end
-        end
-        if ({mst_req_o.ar_valid, mst_resp_i.ar_ready,
-             mst_req_o.aw_valid, mst_resp_i.aw_ready} == 4'b1010) begin
-          state_d = HoldAx;
-        end else if ({mst_req_o.ar_valid, mst_resp_i.ar_ready} == 2'b10) begin
-          state_d = HoldAR;
-        end else if ({mst_req_o.aw_valid, mst_resp_i.aw_ready} == 2'b10) begin
-          state_d = HoldAW;
-        end else begin
-          state_d = Ready;
-        end
-        if (mst_req_o.ar_valid &amp;&amp; mst_resp_i.ar_ready) begin
-          ar_prio_d = 1'b0;
-        end
-      end
-      HoldAR: begin
-        rd_push_oup_id      = ar_id_q;
-        mst_req_o.ar_valid  = 1'b1;
-        slv_resp_o.ar_ready = mst_resp_i.ar_ready;
-        if (mst_resp_i.ar_ready) begin
-          state_d = Ready;
-          ar_prio_d = 1'b0;
-        end
-      end
-      HoldAW: begin
-        wr_push_oup_id      = aw_id_q;
-        mst_req_o.aw_valid  = 1'b1;
-        slv_resp_o.aw_ready = mst_resp_i.aw_ready;
-        if (mst_resp_i.aw_ready) begin
-          state_d = Ready;
-        end
-      end
-      HoldAx: begin
-        rd_push_oup_id      = ar_id_q;
-        mst_req_o.ar_valid  = 1'b1;
-        slv_resp_o.ar_ready = mst_resp_i.ar_ready;
-        wr_push_oup_id      = aw_id_q;
-        mst_req_o.aw_valid  = 1'b1;
-        slv_resp_o.aw_ready = mst_resp_i.aw_ready;
-        unique case ({mst_resp_i.ar_ready, mst_resp_i.aw_ready})
-          2'b01:   state_d = HoldAR;
-          2'b10:   state_d = HoldAW;
-          2'b11:   state_d = Ready;
-          default: /*do nothing / stay in this state*/;
-        endcase
-        if (mst_resp_i.ar_ready) begin
-          ar_prio_d = 1'b0;
-        end
-      end
-      default: state_d = Ready;
-    endcase
-  end
-  `FFARN(ar_id_q, ar_id_d, '0, clk_i, rst_ni)
-  `FFARN(ar_prio_q, ar_prio_d, 1'b0, clk_i, rst_ni)
-  `FFARN(aw_id_q, aw_id_d, '0, clk_i, rst_ni)
-  `FFARN(state_q, state_d, Ready, clk_i, rst_ni)
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-This assertion checks that the width of the input ID (InpIdWidth) is positive, confirming that IDs have a valid width.
-Assertion 2:
-This assertion ensures that MaxUniqInpIds, the maximum number of unique input IDs that can be in-flight, is greater than zero, meaning the table can hold at least one unique ID.
-Assertion 3:
-This assertion verifies that MaxUniqInpIds does not exceed the number of unique IDs representable by InpIdWidth. It ensures that the table’s size is within the range allowed by the input ID width.
-Assertion 4:
-This assertion checks that MaxTxnsPerId, the maximum number of in-flight transactions per ID, is greater than zero, confirming that there is a non-zero limit for tracking transactions.
-Assertion 5:
-This assertion ensures that IdxWidth, the width of the index into the remap table, is at least one bit wide, which is necessary to uniquely address entries in the table.</t>
-  </si>
-  <si>
-    <t>module axi_id_remap_table #(
-  parameter int unsigned InpIdWidth = 32'd0,
-  parameter int unsigned MaxUniqInpIds = 32'd0,
-  parameter int unsigned MaxTxnsPerId = 32'd0,
-  localparam type id_inp_t = logic [InpIdWidth-1:0],
-  localparam int unsigned IdxWidth = cf_math_pkg::idx_width(MaxUniqInpIds),
-  localparam type idx_t = logic [IdxWidth-1:0],
-  localparam type field_t = logic [MaxUniqInpIds-1:0]
-) (
-  input  logic    clk_i,
-  input  logic    rst_ni,
-  output field_t  free_o,
-  output idx_t    free_oup_id_o,
-  output logic    full_o,
-  input  logic    push_i,
-  input  id_inp_t push_inp_id_i,
-  input  idx_t    push_oup_id_i,
-  input  id_inp_t exists_inp_id_i,
-  output logic    exists_o,
-  output idx_t    exists_oup_id_o,
-  output logic    exists_full_o,
-  input  logic    pop_i,
-  input  idx_t    pop_oup_id_i,
-  output id_inp_t pop_inp_id_o
-);
-  localparam int unsigned CntWidth = $clog2(MaxTxnsPerId+1);
-  typedef logic [CntWidth-1:0] cnt_t;
-  typedef struct packed {
-    id_inp_t  inp_id;
-    cnt_t     cnt;
-  } entry_t;
-  entry_t [MaxUniqInpIds-1:0] table_d, table_q;
-  for (genvar i = 0; i &lt; MaxUniqInpIds; i++) begin : gen_free_o
-    assign free_o[i] = table_q[i].cnt == '0;
-  end
-  lzc #(
-    .WIDTH ( MaxUniqInpIds  ),
-    .MODE  ( 1'b0           )
-  ) i_lzc_free (
-    .in_i    ( free_o        ),
-    .cnt_o   ( free_oup_id_o ),
-    .empty_o ( full_o        )
-  );
-  if (MaxUniqInpIds == 1) begin : gen_pop_for_single_unique_inp_id
-    assign pop_inp_id_o = table_q[0].inp_id;
-  end else begin : gen_pop_for_multiple_unique_inp_ids
-    assign pop_inp_id_o = table_q[pop_oup_id_i].inp_id;
-  end
-  field_t match;
-  for (genvar i = 0; i &lt; MaxUniqInpIds; i++) begin : gen_match
-    assign match[i] = table_q[i].cnt &gt; 0 &amp;&amp; table_q[i].inp_id == exists_inp_id_i;
-  end
-  logic no_match;
-  lzc #(
-      .WIDTH ( MaxUniqInpIds  ),
-      .MODE  ( 1'b0           )
-  ) i_lzc_match (
-      .in_i     ( match           ),
-      .cnt_o    ( exists_oup_id_o ),
-      .empty_o  ( no_match        )
-  );
-  assign exists_o      = ~no_match;
-  if (MaxUniqInpIds == 1) begin : gen_exists_full_for_single_unique_inp_id
-    assign exists_full_o = table_q[0].cnt == MaxTxnsPerId;
-  end else begin : gen_exists_full_for_multiple_unique_inp_ids
-    assign exists_full_o = table_q[exists_oup_id_o].cnt == MaxTxnsPerId;
-  end
-  always_comb begin
-    table_d = table_q;
-    if (push_i) begin
-      table_d[push_oup_id_i].inp_id  = push_inp_id_i;
-      table_d[push_oup_id_i].cnt    += 1;
-    end
-    if (pop_i) begin
-      table_d[pop_oup_id_i].cnt -= 1;
-    end
-  end
-  `FFARN(table_q, table_d, '0, clk_i, rst_ni)
-endmodule</t>
-  </si>
-  <si>
-    <t>Assertion 1:
-Ensures that the AXI_ID_WIDTH of the slave port (slv) matches the expected AXI_SLV_PORT_ID_WIDTH parameter. This verification is crucial because the ID width needs to be consistent with the configured ID width for slave requests and responses.
-Assertion 2:
-Confirms that the address width (AXI_ADDR_WIDTH) of the slave port matches the specified parameter AXI_ADDR_WIDTH. This check ensures that the width of address signals is as expected, avoiding mismatches that could lead to data misinterpretation.
-Assertion 3:
-Verifies that the data width (AXI_DATA_WIDTH) of the slave port is equal to the expected data width parameter. This check ensures that the data signals are aligned correctly, which is crucial for data integrity during transactions.
-Assertion 4:
-Ensures that the user data width (AXI_USER_WIDTH) in the slave port matches the specified parameter. This verification is necessary for consistency in user-defined fields associated with the AXI protocol.
-Assertion 5:
-Checks that the AXI_ID_WIDTH of the master port (mst) is equal to the AXI_MST_PORT_ID_WIDTH. This ensures that the master port ID width is correctly configured to handle IDs remapped by the module.
-Assertion 6:
-Confirms that the address width of the master port (AXI_ADDR_WIDTH) is consistent with the parameter for address width. This ensures that both slave and master ports are compatible in terms of address signal width.
-Assertion 7:
-Validates that the master port’s data width matches the AXI_DATA_WIDTH parameter, ensuring compatibility for data transactions.
-Assertion 8:
-Ensures that the user width on the master port is consistent with the AXI_USER_WIDTH parameter. This check guarantees that user-defined signal fields are compatible between the master and slave interfaces.</t>
-  </si>
-  <si>
-    <t>module axi_id_remap_intf #(
-  parameter int unsigned AXI_SLV_PORT_ID_WIDTH = 32'd0,
-  parameter int unsigned AXI_SLV_PORT_MAX_UNIQ_IDS = 32'd0,
-  parameter int unsigned AXI_MAX_TXNS_PER_ID = 32'd0,
-  parameter int unsigned AXI_MST_PORT_ID_WIDTH = 32'd0,
-  parameter int unsigned AXI_ADDR_WIDTH = 32'd0,
-  parameter int unsigned AXI_DATA_WIDTH = 32'd0,
-  parameter int unsigned AXI_USER_WIDTH = 32'd0
-) (
-  input logic     clk_i,
-  input logic     rst_ni,
-  AXI_BUS.Slave   slv,
-  AXI_BUS.Master  mst
-);
-  typedef logic [AXI_SLV_PORT_ID_WIDTH-1:0] slv_id_t;
-  typedef logic [AXI_MST_PORT_ID_WIDTH-1:0] mst_id_t;
-  typedef logic [AXI_ADDR_WIDTH-1:0]        axi_addr_t;
-  typedef logic [AXI_DATA_WIDTH-1:0]        axi_data_t;
-  typedef logic [AXI_DATA_WIDTH/8-1:0]      axi_strb_t;
-  typedef logic [AXI_USER_WIDTH-1:0]        axi_user_t;
-  `AXI_TYPEDEF_AW_CHAN_T(slv_aw_chan_t, axi_addr_t, slv_id_t, axi_user_t)
-  `AXI_TYPEDEF_W_CHAN_T(slv_w_chan_t, axi_data_t, axi_strb_t, axi_user_t)
-  `AXI_TYPEDEF_B_CHAN_T(slv_b_chan_t, slv_id_t, axi_user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(slv_ar_chan_t, axi_addr_t, slv_id_t, axi_user_t)
-  `AXI_TYPEDEF_R_CHAN_T(slv_r_chan_t, axi_data_t, slv_id_t, axi_user_t)
-  `AXI_TYPEDEF_REQ_T(slv_req_t, slv_aw_chan_t, slv_w_chan_t, slv_ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(slv_resp_t, slv_b_chan_t, slv_r_chan_t)
-  `AXI_TYPEDEF_AW_CHAN_T(mst_aw_chan_t, axi_addr_t, mst_id_t, axi_user_t)
-  `AXI_TYPEDEF_W_CHAN_T(mst_w_chan_t, axi_data_t, axi_strb_t, axi_user_t)
-  `AXI_TYPEDEF_B_CHAN_T(mst_b_chan_t, mst_id_t, axi_user_t)
-  `AXI_TYPEDEF_AR_CHAN_T(mst_ar_chan_t, axi_addr_t, mst_id_t, axi_user_t)
-  `AXI_TYPEDEF_R_CHAN_T(mst_r_chan_t, axi_data_t, mst_id_t, axi_user_t)
-  `AXI_TYPEDEF_REQ_T(mst_req_t, mst_aw_chan_t, mst_w_chan_t, mst_ar_chan_t)
-  `AXI_TYPEDEF_RESP_T(mst_resp_t, mst_b_chan_t, mst_r_chan_t)
-  slv_req_t  slv_req;
-  slv_resp_t slv_resp;
-  mst_req_t  mst_req;
-  mst_resp_t mst_resp;
-  `AXI_ASSIGN_TO_REQ(slv_req, slv)
-  `AXI_ASSIGN_FROM_RESP(slv, slv_resp)
-  `AXI_ASSIGN_FROM_REQ(mst, mst_req)
-  `AXI_ASSIGN_TO_RESP(mst_resp, mst)
-  axi_id_remap #(
-    .AxiSlvPortIdWidth    ( AXI_SLV_PORT_ID_WIDTH     ),
-    .AxiSlvPortMaxUniqIds ( AXI_SLV_PORT_MAX_UNIQ_IDS ),
-    .AxiMaxTxnsPerId      ( AXI_MAX_TXNS_PER_ID       ),
-    .AxiMstPortIdWidth    ( AXI_MST_PORT_ID_WIDTH     ),
-    .slv_req_t            ( slv_req_t                 ),
-    .slv_resp_t           ( slv_resp_t                ),
-    .mst_req_t            ( mst_req_t                 ),
-    .mst_resp_t           ( mst_resp_t                )
-  ) i_axi_id_remap (
-    .clk_i,
-    .rst_ni,
-    .slv_req_i  ( slv_req  ),
-    .slv_resp_o ( slv_resp ),
-    .mst_req_o  ( mst_req  ),
-    .mst_resp_i ( mst_resp )
-  );
-endmodule</t>
   </si>
   <si>
     <t>module register
@@ -2702,11 +143,11 @@
       assign out = regs[CYCLES];      
    end       
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>assertion</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module delay_sva
@@ -2738,15 +179,15 @@
    assert property(count == CYCLES || out == RESET_VALUE);
    assert property(!en |=&gt; $stable(out));
 endmodule // delay_tb4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>link</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ARC-Lab-UF/sv-tutorial/blob/main/testbenches/assertions/delay_tb.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module ff
@@ -2758,7 +199,7 @@
       if (rst) out = 1'b0;
       else if (en) out = in;         
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module ff_sva(
@@ -2775,11 +216,11 @@
    assert property(!en |=&gt; out == $past(out,1));
    // assert property(@(posedge clk) disable iff (rst) !en |=&gt; $stable(out));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/ARC-Lab-UF/sv-tutorial/blob/main/testbenches/assertions/ff_tb.sv </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>// Greg Stitt
@@ -2805,7 +246,7 @@
         out &lt;= in;      
    end 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module register_sva  #(
@@ -2828,11 +269,11 @@
    // since they are equivalent.
    assert property(!en |=&gt; out == $past(out,1));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ARC-Lab-UF/sv-tutorial/blob/main/testbenches/assertions/register_tb.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>// Greg Stitt
@@ -2905,7 +346,7 @@
    end
    assign valid_out = valid_delay_r[LATENCY-1];   
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">module fifo
@@ -2948,7 +389,7 @@
    assign empty = rd_addr_r == wr_addr_r;
 endmodule
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module fifo_sva  #(
@@ -2973,11 +414,11 @@
    assert property (valid_wr |-&gt; !full);
    assert property (valid_rd |-&gt; !empty);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ARC-Lab-UF/sv-tutorial/blob/main/testbenches/assertions/fifo_tb.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>// Greg Stitt
@@ -3031,7 +472,7 @@
    // Make sure valid out is asserted correctly after the pipeline is full.
    assert property (count == LATENCY |-&gt; valid_out == $past(valid_in, LATENCY));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3280,7 +721,7 @@
  end
  ///////////////////////
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">module APB_FSM_Controller_sva(input wire Hclk,
@@ -3409,11 +850,11 @@
 assert_WENABLEP_to_READ: assert property (p_WENABLEP_to_READ);
 endmodule
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Ghonimo/Formal-Verification-of-an-AHB2APB-Bridge/tree/main</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>parameter N_MASTERS = 3;
@@ -3469,7 +910,7 @@
         end
     end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>// @lang=sva @ts=2
@@ -3535,11 +976,11 @@
 a_grantmaster1: assert property(@(posedge clk) disable iff(reset) p_grant_master1);
 a_grantmaster2: assert property(@(posedge clk) disable iff(reset) p_grant_master2);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/ahmedsherif99/Bus-Arbiter-Systemverilog-module-with-Formal-Verification-SVA-on-OneSpin/tree/main</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module simple_router #(
@@ -3561,7 +1002,7 @@
 assign dout2 = {DATA_WIDTH{din_en &amp; ( addr == 2'd2 )}} &amp; din; 
 assign dout3 = {DATA_WIDTH{din_en &amp; ( addr == 2'd3 )}} &amp; din; 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module simple_router_sva #(
@@ -3583,11 +1024,11 @@
 dout_addr2_match: assert property ((~(din_en &amp; (addr == 2'd2))) | ((dout2 == din) &amp; (dout0 == 0) &amp; (dout1 == 0) &amp; (dout3 == 0)));
 dout_addr3_match: assert property ((~(din_en &amp; (addr == 2'd3))) | ((dout3 == din) &amp; (dout0 == 0) &amp; (dout1 == 0) &amp; (dout2 == 0)));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/1_Simple_Router/router.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module second_largest #(parameter
@@ -3640,7 +1081,7 @@
 end
 `endif // FORMAL 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">module second_largest_sva #(parameter
@@ -3659,11 +1100,11 @@
 sva_max_greater_max2: assert property ( (max_q == 0) | ( max_q &gt; max2_q )); 
 endmodule
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/2_Second_Largest/model.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Gray_Code_Counter #(parameter
@@ -3692,7 +1133,7 @@
 assign gray_next = bin_q ^ ( bin_q &gt;&gt; 1 );
 assign out = gray_q;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Gray_Code_Counter_sva #(parameter
@@ -3710,11 +1151,11 @@
 default disable iff (~resetn);
 sva_gray_1_bit_diff : assert property ( unused_bin_inc |  $onehot( gray_next ^ gray_q ) );
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/4_Gray_Code_Counter/model.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module reversing_bits #(
@@ -3733,7 +1174,7 @@
 	end
 endgenerate
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module reversing_bits_sva #(
@@ -3750,11 +1191,11 @@
 default disable iff (~rst);
 sva_rev : assert property ( dout[0]  == din[DATA_WIDTH-1]);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/5_Reversing_Bits/model.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Edge_Detector (
@@ -3783,7 +1224,7 @@
 end
 assign dout = pulse_q;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Edge_Detector_sva (
@@ -3807,11 +1248,11 @@
 end
 sva_pulse : assert property ( $rose(din_f_q) == dout );
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/6_Edge_Detector/model.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Parallel_In_Serial_Out_Shift_Reg #(
@@ -3837,7 +1278,7 @@
 end
 assign dout = data_q[0]; 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Parallel_In_Serial_Out_Shift_Reg_sva #(
@@ -3867,11 +1308,11 @@
 end
 sva_shift_reg : assert property ( ~v_f_q | ( v_f_q &amp; din_f_q[0] == dout )); 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/blob/master/7_Parallel_In_Serial_Out_Shift_Reg/model.v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Gray_To_Binary #(
@@ -3893,7 +1334,7 @@
 endgenerate
 assign bin = tmp[DATA_WIDTH-1];
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Gray_To_Binary_sva #(
@@ -3914,15 +1355,15 @@
 assign gray_f = bin ^ ( bin &gt;&gt; 1 );
 sva_inv_bin : assert property ( gray_f == gray );
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/tree/master/11_Gray_To_Binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/tree/master/19_Programmable_Sequence_Detector</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Programmable_Sequence_Detector 
@@ -3949,7 +1390,7 @@
 end
 assign seen = seq_q == init;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Programmable_Sequence_Detector_sva 
@@ -3969,7 +1410,7 @@
 default disable iff (~resetn);
 sva_seen : assert property ( seen == ( seq_q == init ));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module full_adder 
@@ -4013,7 +1454,7 @@
 assign sum[DATA_WIDTH] = carry[DATA_WIDTH];
 assign cout_int        = carry[DATA_WIDTH-1:0];
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>// `include "full_adder.sv"
@@ -4035,11 +1476,11 @@
 assign res = a + b;
 sva_adder : assert property ( res == sum );
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/tree/master/24_Ripple_Carry_Adder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Flip_Flop_Array #(
@@ -4099,7 +1540,7 @@
 	dout = {DATA_W{1'b0}};
 end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Flip_Flop_Array_sva #(
@@ -4124,11 +1565,11 @@
 sva_invalid_read : assert property (@(posedge clk) ~(~data_v_q &amp; rd_en )  | (~data_v_q &amp; rd_en &amp; ( dout == '0 )));  
 sva_sel_onehot0 : assert property (@(posedge clk) $onehot0(rd_v)); 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/Essenceia/formal_experiements/tree/master/25_Flip-Flop_Array</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module PWM #(parameter CBITS = 10) 
@@ -4144,7 +1585,7 @@
       pulse = 1'b0;
   end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">module PWM_sva #(parameter CBITS = 10) 
@@ -4157,11 +1598,11 @@
 p1: assert property (@(posedge clk) (1 |-&gt; s_eventually(~pulse)));
 endmodule
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/PWM_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Delay 
@@ -4179,7 +1620,7 @@
     else sig = 0;
   end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module Delay_sva
@@ -4190,15 +1631,15 @@
 (input clk, input rst, input logic sig);
 p1: assert property (@(posedge clk) s_eventually (rst || sig == 1)) ;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/delay_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/gray_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module gray #(parameter CBITS = 8) (input clk, input rst, output reg [CBITS-1:0] gray_cnt, output reg sig);
@@ -4218,14 +1659,14 @@
   end
   // F G (rst = F) -&gt; G F (sig = T)
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module gray_sva #(parameter CBITS = 8) (input clk, input rst, input logic [CBITS-1:0] gray_cnt, input logic sig);
   p1: assert property (@(posedge clk) s_eventually (rst || sig == 1));
   // F G (rst = F) -&gt; G F (sig = T)
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module i2c #(parameter divider = 125, parameter CBITS = 9) (input clk, input rst, input scl_not_ena, output reg data_clk);
@@ -4263,17 +1704,17 @@
 		end
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module i2c_sva #(parameter divider = 125, parameter CBITS = 9) (input clk, input rst, input scl_not_ena, input logic data_clk, input logic stretch);
 	p1: assert property (@(posedge clk) s_eventually rst == 1 || scl_not_ena == 1 || stretch == 1);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/i2c_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module lcd #(parameter clk_freq = 1, parameter CBITS = 9) (input rst, input clk, input [6:0] in_data, input lcd_enable, input [9:0] lcd_bus, output reg e, output reg[7:0] lcd_data, output reg rw, output reg rs, output reg busy);
@@ -4372,21 +1813,21 @@
 		end
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module lcd_sva #(parameter clk_freq = 1, parameter CBITS = 9) (input clk, input [6:0] in_data, input lcd_enable, input [9:0] lcd_bus, input logic e, input logic[7:0] lcd_data, input logic rw, input logic rs, input logic busy, input logic [1:0] state);
 	p1: assert property (@(posedge clk) s_eventually (lcd_enable == 0 || state == 2));
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/lcd_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/seven_seg_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module SEVEN #(parameter freq = 250, parameter CBITS = 8) (input clk, input rst, input [13:0] both7seg, output reg[6:0] segment);
@@ -4413,14 +1854,14 @@
 		end
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module SEVEN_sva #(parameter freq = 250, parameter CBITS = 8) (input clk, input rst, input [13:0] both7seg, input logic[6:0] segment, input logic digit_select);
 	p1: assert property (@(posedge clk) s_eventually rst == 1 || digit_select == 1);
 	p2: assert property (@(posedge clk) s_eventually rst == 1 || digit_select == 0);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module uart_transmit #(localparam d_width = 4, localparam c_width = 3) (input clk, input rst, input tx_ena, input [d_width - 1: 0] tx_data, output reg tx, output reg tx_busy);
@@ -4458,18 +1899,18 @@
 		tx = tx_buffer[0];
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module uart_transmit_sva #(localparam d_width = 4, localparam c_width = 3) (input clk, input rst, input tx_ena, input [d_width - 1: 0] tx_data, input reg tx, input reg tx_busy, input reg tx_state);
 	p1: assert property (@(posedge clk) s_eventually rst == 1 ||  tx_state == 0);
   	// F G (rst = FALSE) -&gt; G F (tx_state = FALSE)
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/uart_transmit_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module VGA #(localparam  size = 1, localparam h_bits = 7, localparam v_bits = 5) (input clk, input rst, output reg disp_ena, output reg n_blank, output reg n_sync, output reg [h_bits-1:0] col, output reg [v_bits-1:0] row);
@@ -4528,18 +1969,18 @@
 		end
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module VGA_sva #(localparam  size = 1, localparam h_bits = 7, localparam v_bits = 5) (input clk, input rst, input reg disp_ena, input reg n_blank, input reg n_sync, input reg [h_bits-1:0] col, input reg [v_bits-1:0] row);
 	p1: assert property  (@(posedge clk) s_eventually rst == 1 || disp_ena == 1);
   	// F G !rst -&gt; G F disp_ena
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/diffblue/hw-cbmc/blob/main/examples/Benchmarks/vga_1.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module arb2(clk, rst, req1, req2, gnt1, gnt2);
@@ -4565,7 +2006,7 @@
 		gnt2 = req2 &amp; ~req1;
 	end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module arb2_sva(
@@ -4608,11 +2049,11 @@
 endproperty
 assert_a6: assert property(a6);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/tree/NIPS_2024/Jasper_results/Arbiter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//////////////////////////////////////////////////////////////////
@@ -5185,7 +2626,7 @@
 assign first_round = (rd_count == INITIAL_ROUND);
 assign last_round  = (rd_count == NUMBER_ROUND || rd_count == NUMBER_ROUND_INC);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -5242,11 +2683,11 @@
 endproperty
 assert_a0: assert property(a0);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_results/arithmetic_core_aes128/control_unit/FPV_control_unit.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//////////////////////////////////////////////////////////////////
@@ -5465,15 +2906,15 @@
 assign rev_in_type   = crc_cr_ff[3:2];
 assign rev_out_type  = crc_cr_ff[4];
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_results/arithmetic_core_crcahb/host_interface/property_goldmine.sva</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/tree/NIPS_2024/Jasper_results/arithmetic_core_common_files/PSGBusArb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -5597,7 +3038,7 @@
 endproperty
 assert_a17: assert property(a17);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>`timescale 1ns / 1ps
@@ -5780,7 +3221,7 @@
 	end
 end
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module simple_req_ack (
@@ -5809,7 +3250,7 @@
 			ack_ff &lt;= '1;
 	assign ack = ack_ff;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module simple_req_ack_sva (input clk, rst_n, req, ack);
@@ -5837,11 +3278,11 @@
 	// assert_sva_req_ack3 : assert property( sva_req_ack3(clk, rst_n, req, ack) );
 	// assert_sva_req_ack4 : assert property( sva_req_ack4(clk, rst_n, req, ack) );
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/hassyy/systemverilog-assertion/blob/master/simple-req-ack/sva_req_ack.sv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module PSGBusArb_sva(
@@ -5996,7 +3437,7 @@
 endproperty
 assert_a37: assert property(a37);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//////////////////////////////////////////////////////////////////
@@ -6146,7 +3587,7 @@
 	end
 end 
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>module apb_sva(
@@ -6197,11 +3638,11 @@
 endproperty
 assert_a0: assert property(a0);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_results/communication_controller_apb_to_i2c/apb/FPV_apb.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>////////////////////////////////////////////////////////////////////////////////////////////////
@@ -6492,7 +3933,7 @@
 		// output bit-stream
 		assign tx = txReg;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -6670,11 +4111,11 @@
 endproperty
 assert_a0: assert property(a0);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_results/arithmetic_core_8-bit_piepelined_processor/uartTrans/FPV_uartTrans.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>////////////////////////////////////////////////////////////////////////////////////////////////
@@ -6943,7 +4384,7 @@
 		// recvd data output
 		assign dOut = bReg;
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>////////////////////////////////////////////////////////////////////////////////////////////////
@@ -7132,11 +4573,11 @@
 endproperty
 assert_a6: assert property(a6);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_llama_results/arithmetic_core_8-bit_piepelined_processor/uartRec/FPV_uartRec.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//////////////////////////////////////////////////////////////////
@@ -8602,7 +6043,7 @@
 				else if(count_send_data &gt;= DATA_CONFIG_REG[13:2]/12'd4 &amp;&amp; count_send_data &lt; (DATA_CONFIG_REG[13:2]-(DATA_CONFIG_REG[13:2]/12'd4))-12'd1)
 				begin
 					BR_CLK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -8676,11 +6117,11 @@
 endproperty
 assert_a6: assert property(a6);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/NIPS_2024/Jasper_llama_results/communication_controller_apb_to_i2c/module_i2c/FPV_module_i2c.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//////////////////////////////////////////////////////////////////////
@@ -8852,7 +6293,7 @@
 end
 assign StateData[1:0] = {StateData1, StateData0};
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -9018,18 +6459,18 @@
 endproperty
 assert_a34: assert property(a34);
 endmodule</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/achieve-lab/assertion_data_for_LLM/blob/66da64e4274e8571ffcdd9d6645ed898a1a23f83/Jasper_results/communication_controller_100_mb-s_ethernet_mac_layer_switch/eth_rxstatem/FPV_eth_rxstatem.tcl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9048,12 +6489,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -9096,9 +6531,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -9109,16 +6544,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9340,612 +6769,420 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="41.90625" customWidth="1"/>
-    <col min="5" max="5" width="75.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="237.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="350" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="325" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="387.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="375" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="200" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+    <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
+    <row r="24" spans="1:3" ht="325" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+    <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
+    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
+    <row r="31" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="387.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
+    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
+    <row r="33" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
+    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
+    <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{958AE633-3648-4E99-B0EF-838BD19A025B}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{6CF68917-95CC-487F-87DC-CDE18B048B37}"/>
